--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="293">
   <si>
     <t>Job Title</t>
   </si>
@@ -57,97 +57,106 @@
     <t xml:space="preserve">	Link</t>
   </si>
   <si>
-    <t>Java/J2EE Developer</t>
-  </si>
-  <si>
-    <t>JAVA / J2EE Developer</t>
-  </si>
-  <si>
-    <t>Java/J2ee Developer in telecom domain (Sr. Positions)</t>
-  </si>
-  <si>
-    <t>Java / J2EE Developer</t>
-  </si>
-  <si>
-    <t>Java/ J2ee Developer in telecom domain</t>
-  </si>
-  <si>
-    <t>Java/ J2ee Developer in telecom domain (Sr. Positions)</t>
-  </si>
-  <si>
-    <t>Java/J2ee Developer in telecom domain</t>
-  </si>
-  <si>
-    <t>JAVA/ J2EE DEVELOPER</t>
-  </si>
-  <si>
-    <t>JAVA J2EE Developer</t>
-  </si>
-  <si>
-    <t>Java/J2ee Developer</t>
-  </si>
-  <si>
-    <t>Java/ J2ee Developer</t>
-  </si>
-  <si>
-    <t>Java/ J2Ee Developer</t>
-  </si>
-  <si>
-    <t>Senior Java / J2EE Developer / Software Engineer</t>
-  </si>
-  <si>
-    <t>Java/J2ee developers</t>
-  </si>
-  <si>
-    <t>May 10, 2020</t>
-  </si>
-  <si>
-    <t>May 09, 2020</t>
-  </si>
-  <si>
-    <t>May 05, 2020</t>
-  </si>
-  <si>
-    <t>May 03, 2020</t>
-  </si>
-  <si>
-    <t>May 04, 2020</t>
-  </si>
-  <si>
-    <t>Apr 29, 2020</t>
-  </si>
-  <si>
-    <t>Apr 27, 2020</t>
-  </si>
-  <si>
-    <t>Apr 25, 2020</t>
-  </si>
-  <si>
-    <t>Srushti Software Systems Pvt Ltd</t>
-  </si>
-  <si>
-    <t>New Era Consulting Services Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Brainstorm Technologies</t>
-  </si>
-  <si>
-    <t>Squircle IT Consulting Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>sureevents</t>
-  </si>
-  <si>
-    <t>BrainToSoul Consulting</t>
-  </si>
-  <si>
-    <t>Sailotech</t>
-  </si>
-  <si>
-    <t>Snapooh Media Pvt. Ltd Share</t>
-  </si>
-  <si>
-    <t>Tricon Infotech Pvt. Ltd.</t>
+    <t>Python Programmer</t>
+  </si>
+  <si>
+    <t>Python Developer</t>
+  </si>
+  <si>
+    <t>Immediate Openings For Python Developer</t>
+  </si>
+  <si>
+    <t>Hiring For Full Stack Developer (Python)</t>
+  </si>
+  <si>
+    <t>Requirement For Python Developer</t>
+  </si>
+  <si>
+    <t>Sr. Software Developer Python Developer</t>
+  </si>
+  <si>
+    <t>SR. SOFTWARE ENGINEER - PYTHON (2)</t>
+  </si>
+  <si>
+    <t>Senior/Software Python Developer</t>
+  </si>
+  <si>
+    <t>Python Developer-Sr. Engineer</t>
+  </si>
+  <si>
+    <t>Senior Python Developer</t>
+  </si>
+  <si>
+    <t>Python , Django Developer</t>
+  </si>
+  <si>
+    <t>Tech Lead - Python</t>
+  </si>
+  <si>
+    <t>Developer Python</t>
+  </si>
+  <si>
+    <t>JAVA &amp; Python Developer</t>
+  </si>
+  <si>
+    <t>May 14, 2020</t>
+  </si>
+  <si>
+    <t>May 15, 2020</t>
+  </si>
+  <si>
+    <t>May 19, 2020</t>
+  </si>
+  <si>
+    <t>May 18, 2020</t>
+  </si>
+  <si>
+    <t>May 17, 2020</t>
+  </si>
+  <si>
+    <t>Sapiens International Corporation</t>
+  </si>
+  <si>
+    <t>Fin Infocom Pvt Ltd</t>
+  </si>
+  <si>
+    <t>JOBINGO HR SOLUTION</t>
+  </si>
+  <si>
+    <t>Praatah business Services Pvt Ltd</t>
+  </si>
+  <si>
+    <t>TeamPlus Staffing Solution Pvt.ltd.</t>
+  </si>
+  <si>
+    <t>Space Consultants</t>
+  </si>
+  <si>
+    <t>Macrew Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>Talent Zone Consultant</t>
+  </si>
+  <si>
+    <t>Squareroot Consulting Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Incedo</t>
+  </si>
+  <si>
+    <t>aazzuro</t>
+  </si>
+  <si>
+    <t>FAYA</t>
+  </si>
+  <si>
+    <t>Merit Group Limited</t>
+  </si>
+  <si>
+    <t>Agileblaze Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Azmobia Telecom Pvt Ltd</t>
   </si>
   <si>
     <t>-</t>
@@ -156,771 +165,829 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Skills :j2ee, java, developer</t>
-  </si>
-  <si>
-    <t>Skills :sql, xml, sql server, software integration, computer science</t>
-  </si>
-  <si>
-    <t>Skills :java, j2ee, 
-                                                            ip routing, 
-                                                            voice services, 
-                                                            routing protocols</t>
-  </si>
-  <si>
-    <t>Skills :
-                                                            core java, java, j2ee, Java Database Connectivity, 
-                                                            Sun Certified Java Programmer</t>
-  </si>
-  <si>
-    <t>Skills :java, 
-                                                            ip routing, 
-                                                            voice services, 
-                                                            routing protocols, 
-                                                            functional design</t>
-  </si>
-  <si>
-    <t>Skills :java, 
-                                                            ip routing, 
-                                                            voice services, 
-                                                            functional design, 
-                                                            ip</t>
-  </si>
-  <si>
-    <t>Skills :java, j2ee, 
-                                                            c, 
-                                                            php, 
-                                                            sql</t>
-  </si>
-  <si>
-    <t>Skills :java ee, 
-                                                            core java, 
-                                                            root cause, 
-                                                            web services, 
-                                                            data modeling</t>
-  </si>
-  <si>
-    <t>Skills :java, j2ee, 
-                                                            hibernate, 
-                                                            ssh, 
-                                                            jsp</t>
-  </si>
-  <si>
-    <t>Skills :java, j2ee, 
-                                                            jsp, 
-                                                            spring, 
-                                                            hibernate</t>
-  </si>
-  <si>
-    <t>Skills :
-                                                            core java, 
-                                                            spring mvc, 
-                                                            sql queries, 
-                                                            build tools, 
-                                                            control system</t>
-  </si>
-  <si>
-    <t>Skills :java, 
-                                                            spring mvc, 
-                                                            web services, 
-                                                            oracle database, 
-                                                            application server</t>
-  </si>
-  <si>
-    <t>Skills :ip routing, routing protocols, functional design, ip, jsp</t>
-  </si>
-  <si>
-    <t>Skills :ip routing, jsp servlets, voice services, routing protocols, functional design</t>
-  </si>
-  <si>
-    <t>Skills :java, 
-                                                            spring mvc, 
-                                                            web services, 
-                                                            application server, 
-                                                            eeo</t>
-  </si>
-  <si>
-    <t>Skills :java, j2ee, 
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Mohali</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Other Gujarat</t>
+  </si>
+  <si>
+    <t>Thiruvanananthapuram</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Skills :python, Python, Python Programmer, 
+                                                            control system, 
+                                                            data structures</t>
+  </si>
+  <si>
+    <t>Skills :python, python developer, 
+                                                            kubernetes, 
+                                                            spark, 
+                                                            django</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            codes, 
+                                                            maintenance, 
+                                                            it, 
+                                                            django</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            nosql, 
+                                                            git, 
+                                                            cloud, 
+                                                            mysql</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            mysql, 
+                                                            django, 
+                                                            html, 
+                                                            css</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            software development, 
+                                                            javascript, 
+                                                            rest, 
+                                                            project administration</t>
+  </si>
+  <si>
+    <t>Skills :python, 
                                                             sql, 
-                                                            javascript, 
-                                                            sql server</t>
-  </si>
-  <si>
-    <t>Skills :j2ee, 
-                                                            communication, 
-                                                            spring, 
-                                                            algorithms, 
-                                                            automata</t>
-  </si>
-  <si>
-    <t>Java/J2EE Developer (2+ years experience),</t>
-  </si>
-  <si>
-    <t>JAVA / J2EE Developer JAVA / J2EE Developer Job Duties APPLY Design, develop, test and install various client- server, web- based software application systems; gather and interpret functional specifications and</t>
-  </si>
-  <si>
-    <t>Java/ J2ee Developer in telecom domain (Sr. Positions) 3+yrs( Relevant exp with java/ j2ee in telecom domain) Job Decription Detailed understanding of internet/ voice services network technology and supporting systems</t>
-  </si>
-  <si>
-    <t>Job Description Mandatory Skills:- Core Java, J2EE, Struts, Hibernate, WebServices Development &amp; Web Services Intergration, Some sort of Application integration or experience of SOA / TIBCO platform is required.,</t>
-  </si>
-  <si>
-    <t>Job Decription: Detailed understanding of internet/ voice services network technology and supporting systems functional design and operations. Requires an understanding of network element technologies, functions, data flows, etc. for different</t>
-  </si>
-  <si>
-    <t>Detailed understanding of internet/ voice services network technology and supporting systems functional design and operations. Requires an understanding of network element technologies, functions, data flows, etc. for different IP networks.</t>
-  </si>
-  <si>
-    <t>Skill setsJava / J2EE (Core Java, JSP, Servlets, XML, EJB, and JDBC) Job Description Work with the Product Management team in gathering requirements for the features. Work with the Professional</t>
-  </si>
-  <si>
-    <t>Job Description Key skills: Core Java should be really strong (Collection, Multithreading, Exceptional Handling), J2EE, JSP, Servlets, Spring, Hibernate, Webservices (SOAP/Restful), JUnit, Weblogic. Desirable Skills:- JSF, EJB, Javascript As Senior</t>
-  </si>
-  <si>
-    <t>Job Description Skills : JAVA J2EE Developer With network programming, RPC ExP: 2-5 Yrs Location : Bangalore Pay rate: 10LPA Interview location F2F Bangalore / NO SKYPE / NO Telephonic</t>
-  </si>
-  <si>
-    <t>Job Description Exp. Level: 2-5 years Work Location: Bangalore Salary: 10-12 LPA NP: 30 days JD: You will be core member of team that designs and implements our on-premise and</t>
-  </si>
-  <si>
-    <t>Job Description Exp. Level:6 to 10 Years Work Location (also mention if we can consider relocation):Dell, Domlur (EGL), Bangalore Max PR for Vendors:9:20 LPA Interview location:Dell, Domlur (EGL), Bangalore Remarks</t>
-  </si>
-  <si>
-    <t>Job Description Skills: Java/J2EE Developer Exp. Level: 5-13 Year # of Position: 3 Work Location (also mention if we can consider relocation): Bangalore Max PR for Candidate: 13.00 LPA for</t>
-  </si>
-  <si>
-    <t>Detailed understanding of internet/voice services network technology and supporting systems functional design and operations. Requires an understanding of network element technologies, functions, data flows, etc. for different IP networks. Skill</t>
-  </si>
-  <si>
-    <t>Job DecriptionDetailed understanding of internet/ voice services network technology and supporting systems functional design and operations. Requires an understanding of network element technologies, functions, data flows, etc. for different IP</t>
-  </si>
-  <si>
-    <t>Java/ J2EE Developer Java/ J2EE design and development skills. Core Java, Angular JS, HTML5, JSP, Spring Web Services, Multithreading, SDLC and OOPS concepts,</t>
-  </si>
-  <si>
-    <t>We need new profiles on this with strong Java with Spring MVC / Struts MVC, Hibernate, Web Services, Weblogic Application Server &amp; Oracle Database experience. Additional Information All your information</t>
-  </si>
-  <si>
-    <t>Responsibilities As an developer you have a huge impact on how we design, build and deliver our product/service to our users You are responsible for writing efficient and maintainable code.</t>
-  </si>
-  <si>
-    <t>Responsibilities As an developer you have a huge impact on how we design , build and deliver our product /service to our users You are responsible for writing efficient and</t>
-  </si>
-  <si>
-    <t>Skills/Requirements: Should have good experience in Spring, Springboot, Microservices, Should have good exp on Datastructures, Algorithms Exp in AWS is a must Good communication skills are a must. ,</t>
+                                                            cloud, 
+                                                            django, 
+                                                            html</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            mysql, 
+                                                            jquery, 
+                                                            html, 
+                                                            nosql</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            engineering, 
+                                                            software, 
+                                                            software engineering, 
+                                                            sr</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            html, 
+                                                            data structures, 
+                                                            web application development, 
+                                                            center of excellence</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            less, 
+                                                            django, 
+                                                            now, 
+                                                            india</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            soft skills, 
+                                                            computer science, 
+                                                            work effectively, 
+                                                            software services</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            css, 
+                                                            ltd, 
+                                                            agile, 
+                                                            django</t>
+  </si>
+  <si>
+    <t>Skills :python, 
+                                                            java, 
+                                                            blender, 
+                                                            css, 
+                                                            software</t>
+  </si>
+  <si>
+    <t>Python Programmer Location: Bangalore Sapiens International Corporation (NASDAQ and TASE: SPNS) is a leading global provider of software solutions for the insurance industry, with an emerging focus on the broader</t>
+  </si>
+  <si>
+    <t>Dear Candidate, Greetings of the day! We are Hiring for, Python Developer We are looking for minimum 2 years of experience as a python developer. They are familiar with frameworks</t>
+  </si>
+  <si>
+    <t>Dear Candidate, We have currently openings for the position of Python Developer with a reputed client who is into Software/IT Industry located at Noida. Kindly go through the details given</t>
+  </si>
+  <si>
+    <t>Full Stack Developer Location : Delhi Experience : 2 to 4 Years Salary: 7 to 10 Lacs Vacancy : 3 Working days: 5 Job Description for Full stack (Python Backend</t>
+  </si>
+  <si>
+    <t>Job Description We are looking for a Python Web Developer responsible for building web apps integrating various social media APIs. Your primary focus will be the development of all server-side</t>
+  </si>
+  <si>
+    <t>Python Developer 5 to 9 Angular JS, Django Shivaji Nagar, Pune ,</t>
+  </si>
+  <si>
+    <t>Note: EST support we would prefer male candidates. Please note: Python experience is mandatory. Please note this role would require EST support ( Eastern Time) Job time in office: 12</t>
+  </si>
+  <si>
+    <t>Job Description Dear Candidate, We have currently openings for the position of Python Developer with a reputed client who is into Software/IT Industry located at Noida. Kindly go through the</t>
+  </si>
+  <si>
+    <t>Job Description Full Stack Developer Location : Delhi Experience : 2 to 4 Years Salary: 7 to 10 Lacs Vacancy : 3 Working days: 5 Job Description for Full stack</t>
+  </si>
+  <si>
+    <t>We are looking for a Python Web Developer responsible for building web apps integrating various social media APIs. Your primary focus will be the development of all server-side logic, integrating</t>
+  </si>
+  <si>
+    <t>SR. SOFTWARE ENGINEER - PYTHON (2),</t>
+  </si>
+  <si>
+    <t>We are looking for a Python Web Developer responsible for managing the interchange of data between the server and the users. Your primary focus will be the development of all</t>
+  </si>
+  <si>
+    <t>Expert in Python. Django is Must. Familiarity with some ORM (Object Relational Mapper) libraries Understanding of the threading limitations of Python, and multi-process architecture Good understanding of server-side templating languages</t>
+  </si>
+  <si>
+    <t>Hiring Back-end Python Developer with Internet Startup based out in Noida location. Preferably immediately joiner or max notice period of 15 Days (Or Less). Role : Senior/Software Python Developer Location</t>
+  </si>
+  <si>
+    <t>"As a software engineer at the Incedo Cyber Security Center of Excellence in Pune you will be working on the products and solutions in the domain of cyber security providing</t>
+  </si>
+  <si>
+    <t>B.Tech. / B.E / MCA degree in Computer Science , Engineering or a related stream. 3+ years of Python / Java development projects experience. Minimum of 4 live project roll</t>
+  </si>
+  <si>
+    <t>Python, Django Developer Trivandrum, India Apply Now ,</t>
+  </si>
+  <si>
+    <t>Possess good technical skill on python including best practices such as modular coding, design aspects, error handling, etc Expertise in crawling and have used the scrapy framework Familiarity in estimation</t>
+  </si>
+  <si>
+    <t>Technology Solutions Firm seeks lead Python Developer with Minimum 6 months of experience for our Cochin, Kerala center. We (Agileblaze Technologies Pvt Ltd., ) are looking for candidates to join</t>
+  </si>
+  <si>
+    <t>3: JAVA &amp; Python Developer Skills Required: Strong knowledge of JAVA/C++ / Python / Blender Python / Flask Framework / WebScraping / Panorama Industry: IT-Software / Telecom Services Functional Area:</t>
+  </si>
+  <si>
+    <t>3 to 5 Yrs</t>
+  </si>
+  <si>
+    <t>2 to 4 Yrs</t>
+  </si>
+  <si>
+    <t>1 to 3 Yrs</t>
+  </si>
+  <si>
+    <t>3 to 7 Yrs</t>
+  </si>
+  <si>
+    <t>4 to 6 Yrs</t>
+  </si>
+  <si>
+    <t>2 to 5 Yrs</t>
+  </si>
+  <si>
+    <t>2 to 3 Yrs</t>
+  </si>
+  <si>
+    <t>5 to 10 Yrs</t>
   </si>
   <si>
     <t>2 to 7 Yrs</t>
   </si>
   <si>
-    <t>3 to 8 Yrs</t>
-  </si>
-  <si>
-    <t>3 to 5 Yrs</t>
-  </si>
-  <si>
-    <t>5 to 8 Yrs</t>
-  </si>
-  <si>
-    <t>4 to 7 Yrs</t>
-  </si>
-  <si>
-    <t>4 to 6 Yrs</t>
-  </si>
-  <si>
-    <t>2 to 5 Yrs</t>
-  </si>
-  <si>
-    <t>4 to 10 Yrs</t>
-  </si>
-  <si>
-    <t>5 to 10 Yrs</t>
-  </si>
-  <si>
-    <t>1 to 5 Yrs</t>
-  </si>
-  <si>
-    <t>5 to 13 Yrs</t>
-  </si>
-  <si>
-    <t>2 to 4 Yrs</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer/srushti-software-systems-pvt-ltd/10203699/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/new-era-consulting-services-pvt-ltd/10104333/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer-in-telecom-domain-sr-positions/brainstorm-technologies/10096566/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/squircle-it-consulting-services-pvt-ltd/10484539/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer-in-telecom-domain/brainstorm-technologies/10096404/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer-in-telecom-domain-sr-positions/brainstorm-technologies/10096405/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer-in-telecom-domain/brainstorm-technologies/10096568/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/sureevents/9869400/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/squircle-it-consulting-services-pvt-ltd/10488630/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/squircle-it-consulting-services-pvt-ltd/10489143/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/squircle-it-consulting-services-pvt-ltd/10489141/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/squircle-it-consulting-services-pvt-ltd/10488717/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer/squircle-it-consulting-services-pvt-ltd/10487352/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer/brainstorm-technologies/10096710/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/brainstorm-technologies/10790997/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/java-j2ee-developer/braintosoul-consulting/10790247/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developer/sailotech/10296282/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/senior-java-j2ee-developer-software-engineer/snapooh-media-pvt-ltd-share/10180301/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/senior-java-j2ee-developer-software-engineer/snapooh-media-pvt-ltd-share/10180282/</t>
-  </si>
-  <si>
-    <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
-  </si>
-  <si>
-    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Java Developers - Freshers</t>
-  </si>
-  <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Java Freshers</t>
-  </si>
-  <si>
-    <t>Software Engr II</t>
-  </si>
-  <si>
-    <t>Java Internship Program - [Freshers]</t>
-  </si>
-  <si>
-    <t>Java / J2EE - Architecture</t>
-  </si>
-  <si>
-    <t>JAVA DEVELOPER</t>
-  </si>
-  <si>
-    <t>Java Developers/Leads</t>
-  </si>
-  <si>
-    <t>Elastic search developer / Solr developer/8+ years</t>
-  </si>
-  <si>
-    <t>Sterling OMS Consultant</t>
-  </si>
-  <si>
-    <t>Android Technical Trainer (Remote)</t>
-  </si>
-  <si>
-    <t>Java/Web development Internship for B.E/B.Tech (Pursuing stu...</t>
+    <t>8 to 12 Yrs</t>
+  </si>
+  <si>
+    <t>3 to 4 Yrs</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-programmer/sapiens-international-corporation/10711177/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer/fin-infocom-pvt-ltd/10815449/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/immediate-openings-for-python-developer/jobingo-hr-solution/10316621/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/hiring-for-full-stack-developer-python/jobingo-hr-solution/10317003/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/requirement-for-python-developer/jobingo-hr-solution/10317745/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer/praatah-business-services-pvt-ltd/10196196/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/sr-software-developer-python-developer/teamplus-staffing-solution-pvtltd/10515071/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/immediate-openings-for-python-developer/space-consultants/9985871/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/hiring-for-full-stack-developer-python/space-consultants/9987264/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer/space-consultants/10007825/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/sr-software-engineer-python-2/macrew-technologies-private-limited/10276153/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer/talent-zone-consultant/10400822/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer/talent-zone-consultant/10400977/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/seniorsoftware-python-developer/squareroot-consulting-pvt-ltd/10720500/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-developer-sr-engineer/incedo/10714046/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/senior-python-developer/aazzuro/10582808/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/python-django-developer/faya/10269988/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/tech-lead-python/merit-group-limited/10544063/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/developer-python/agileblaze-technologies-pvt-ltd/9867777/</t>
+  </si>
+  <si>
+    <t>https://www.shine.com/jobs/java-python-developer/azmobia-telecom-pvt-ltd/10298017/</t>
+  </si>
+  <si>
+    <t>Software Engineer 3</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Backend Development (Python) Internship</t>
+  </si>
+  <si>
+    <t>Senior Python Developers</t>
+  </si>
+  <si>
+    <t>Python Programming Trainer</t>
+  </si>
+  <si>
+    <t>Sr. Python Developer</t>
+  </si>
+  <si>
+    <t>Python Developers</t>
+  </si>
+  <si>
+    <t>Job Opening - Data Scientist / Data Analyst (Python &amp; R Basi...</t>
+  </si>
+  <si>
+    <t>Python Development Internship</t>
+  </si>
+  <si>
+    <t>Python / Django Software Engineer</t>
+  </si>
+  <si>
+    <t>Python Django Developer</t>
+  </si>
+  <si>
+    <t>US Reg Reporting (Capital Analytics) - Assistant Manager</t>
+  </si>
+  <si>
+    <t>Principal Technologist</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Lead, Software Engineer</t>
+  </si>
+  <si>
+    <t>Online Python Trainer (Female candidates only)</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
-    <t>Flixmind infotech PVT LTD</t>
-  </si>
-  <si>
-    <t>Infosys Limited</t>
-  </si>
-  <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Keyfalcon Solutions</t>
-  </si>
-  <si>
-    <t>Zycus</t>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>FullThrottle Labs</t>
+  </si>
+  <si>
+    <t>Frescano Infotech Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Uplatz</t>
   </si>
   <si>
     <t>CGI</t>
   </si>
   <si>
+    <t>Biztechnosys infotech LLP</t>
+  </si>
+  <si>
     <t>Careator Technologies</t>
   </si>
   <si>
-    <t>Enhance IT</t>
-  </si>
-  <si>
-    <t>TechCiti Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>Applied Materials Inc.</t>
+    <t>Pragati HR Services</t>
+  </si>
+  <si>
+    <t>Senvion Wind Energy Solutions</t>
+  </si>
+  <si>
+    <t>Home Screen Network Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Entity Vibes</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Treft Systems Inc</t>
+  </si>
+  <si>
+    <t>Epsilon India</t>
+  </si>
+  <si>
+    <t>Whitehat Education Technology Pvt. Ltd.</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka</t>
   </si>
   <si>
-    <t>8 + years of experience Mandatory.
-Experience in either SOLR/Java with ElasticSearch.
-Understanding about ‘keyword search’, natural language search’ and…</t>
-  </si>
-  <si>
-    <t>Internal Title: Senior Systems Engineer.
-Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
-Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
-  </si>
-  <si>
-    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
-Qualifications: Any Degree with Computer Background.</t>
-  </si>
-  <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
-Knowledge in business model VOIP/IPTV/Data.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>CGI is hiring for JAVA Developer for Bangalore location.
-Primary skills-Java Spring/Spring boot, MVC, Angular/Full stack.
-Years of Experience- 3 yrs to 10 yrs.</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
-  </si>
-  <si>
-    <t>8+ years of experience mandatory.
-Experience in either SOLR/ElasticSearch.
-Understanding about ‘keyword search’, natural language search’ and cognitive search.</t>
-  </si>
-  <si>
-    <t>\*\*Location of posting is driven by business requirements.
-External Role: Sterling OMS Consultant.
-Skill(s): * Sterling OMS, Sterling Commerce.</t>
-  </si>
-  <si>
-    <t>Our company is seeking to hire a top-level Android Technical Trainer to help coach, mentor and develop our Android technical consultants within our business.</t>
-  </si>
-  <si>
-    <t>We are providing Software development Internship with Training to all Pursuing Students.
-BE/BTECH* (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
-  </si>
-  <si>
-    <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd00AHPR3yeMnrsbdvkgH_ePJMDsR8QcHmLNlyuOkaAXuyNWFVu1p0z-vXmwMZQysmQjio6m3M3GtWFhfRStOWQd2g3bZGqm8cgu6_97R_TMcuyt99XJJC_X8edhgRVD7MA-nrqZc6wAYBaXm653WYIOJ8wMVrOgl7rxbvJrL_twetpzvyUeocMZvkfpo_dp8zCM9naTLzSmIxyeENFkw-r73VVmcUoFfDDWkkIxRE3w4Y7OFCH1fTCEBkTerCDADwImeL8nV3mJkfOwKmiEjeESHPdxY-3dHQ1Awo10uHCcDnbvKfG8MSCQxo_0BFNayjDuOacQSn1yFE&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUsJ-rlB1DSQ5vZHp2yhG_cxomapM5YVYSuj6QfZTHhVILW4I7VjzFiFjD2PiPHeRiLApsevEe4UWgugMdErp6vXfj6P3_3lFCkffKFiFc0w-myT4z2bNCUhGKlyjIvvrIIKOFkX0KcrIpZib9jLaEaZX48LMO18-7ijmDjCgRBlGPi_IbKkg20gyKc2Bb0s-cZ-XQio0Awz1iyVWZSn_Zx4N4UQxcvjeqQ4XPkjka3HHp6rS6Vu-MHWfByHBR0JZVZ9RlqnRP7HeoWKFR8GIBFSBt8YYG0I8Ocno1QmCvDEl4ZHmSJVnG2quFD8OwkE-0aecQZPp6kQo-HZIhdpY8b_Q37sgmBxBFehViMY3mO2uoQjwrle7rPI4eYCbdY7-eK562EX26eUOWaawX54Vzujx0trXas7egVqLL7vIutYSa8J8nDArEQ0ZAQkEi3-bsTICDpaExmlA3Fq_SCerntG6tM3Llz2v3&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Varnaaz-Technologies/jobs/Java-Developer-ce5238e175573cc5?fccid=48b0e1c553bfe209&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=7721a250865666b9&amp;fccid=3c1bd4b28eeecdf9&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=f139dcc18959cb77&amp;fccid=f0c1e70642253730&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76EdBlC8qaoxOZQ3tdD2ll_rGaWXfhlOCaA0JsG2gJI1WriWS1SivLENJZqIego90pqqCPwhjVEIfN9iP47UACwUYFJWRf3N8QMMLXg8PGDV9DPjbFVW-zBewJ0k_-bHjXtTs_SMjX1oa6XvAGk_Iks8u_JFIAnWrmgdqerLNbNtj4pG9k7XZolW6wFdKnOJUUgiNcuN1s0x01fbksuaQvbZVStBe38OapQjsrCD81kE3ld5EZXWCdl3NauvxVr4YtV1Do8Dtca8gU1txMS6Ay1eQ-rJtntRg62pEmCOyfLZOaF2S2XHSiS2TWPfLJOWANfGuz4_pONsod232wNH3IwSVQ8ywIDcCzh0Y9pRvcVXahonCorkPHk6uQ7R0vBPbnyb1NTB1E3PANYwEuUEUTkGQInAoXYXh_AWjV-1oxlBNgtZAWHvGjUw==&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83ii8TaMDLZ5mXK0xjYQB534srE3M9xURWBXaXBF90w9mOcIRDOpJtZEtb6IbHOcT8twE_OSNY37tT-aUiOkvxEO8838r1FXjxqrJOYo7leUzKPgQw0X7WIp9IjPjfVErifLWNjxia9nxQ0tSyLDVgRgpQfpv1ix7QJRsaxA16aLqSS5rs_ADaFULIzCDZ6PFHRDRpzoN1rClk_IYzF9nkeFl5TO3rjW7NMOdPum9xmLoobYXp88H2Zh-scB-WMZcfRCGIqKADhP6H0NRDkTsFDld4g98EBvrWAorbNa68ewE7kiFZ_TreC12J990yR2Xt2v4ZmmWrp4p2fXgyIfPDoxchDHhjnsKuaTFtK5JdQREonKwPdnPVoPg6ABwOSh6v7rCW2TPtsc1OYXi6NlRURXulrOPPCatJCDHq_uIUjxoCpu-JZGbVn-HEIvfEh4-P16p6cPiZiOnBbJu8C9UpjjrM2zlSAyKy97t_f4E_PY1s-VgtGB39P8acA3j9ARJjl1nlnJvO_hHpdVs6WhwQ86RKlhRBX9WCpmDJ0TCII49GwAqxGKB_0_uCcSGkaeQv5cPSQSy1FndcK0rf5b0Cvwh&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3X2jYd6ThPWMa4ZMO9gBG8KguSxH4ZmHDXBhH--UKQAfe108K6LSSR-QBF5EXpEIIL4l5GcQH8xR4ult3XWGAYdyBvb7339UwzUycQtimZ_4jBzp1OJ3y9XIw20yO3s211DH2u5-VghFY1b9JSXMe5QQ9QUjtWCxmhmrEfGsZDUfS30X-vYx7fjdss80LlPYQV2XXnOerbXeKoRrBEJ5OUyfi8RuaQu8rv8rBS2Y9EfeZ-mbN8qKGGwpxPGdoG9cVxoGoZOZg-mWxHGSXyk_uJRS0TMBNbqSjdXbGQuns_Bal48tCayPgHOT2v3-htz1m49stlAGnPKvzDYdXpmrfITx1NK3spqBwlboxcLHKa0Si1jH1koDg035yitqR0onfV_pntEhCAKTUFtMgkE3m_eeSuig9Lk_1jyMvC-M05bmM-e8RB2IxY7qe5rWyCnE5hCHnxVpEUw==&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrP0RuCbsIG7sFNQhnFlitvd80nRBokpAUPCjqDqDYQqmgaqwwtyUMNza_jtcVaOB55glsVKCQEhTJveDsoIGCcFSvXONDcHhb05wRBnwvY6GjHkD4RIxIoNCWLjHtOvCCyF_H1PN-BNj8bDEaLQasABs3YRYGtW-4_pwGCz7mgRYvpeZ7-kqoMnith29SvBmZc79h0GqdBbcqAhhPoNHrq-3oDP9F7p1djW5kwPdXeJyVodyvU9IwN6IP1m_QmHB74yQ-2HgBZoHSUVmYUQFB5sF252VOoF5Vc9lsDhYFO6q4lLA6yGuCONxiIib0Id1lmjcy0nBywKlX_5LjNLz3mHWZOARACXpXfmVJVmu48AHJbijnGXH0I2QxharyMFGqi5KhR8pv1JKKngumIv0yFllxDDJ7QKsx1ck_Qd5wZTSnZYPefrq0diGYTUaQzEhXB&amp;p=15&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcfIpRQZFditJkNbCcgT6dkVq7_zp8CdOmkDGfkXZ2PnLfCwOokeHb1OJOxXg2m1A5ALV3PxneDnGs2IkcXTDO6lKByReRdw1xRnQXYZQpmhNHr91SzJvzGAuN_kzwxpaIDIqDYc-H8m0d-nnnmHCMjmQ5lPXdpwXOF4S4E28Cv1Fra21K7YhwUEyfthP733mjDHjcG1wRRXIte2HqiYoNIx4bhgcdoR6RvbeDAgHX_0XGIuQiiq-zU19uU1xSxdWzuKdtnNEb0s_lyHiqWgWizd9u7fLxz0JdXWU7Z54ARfBaGfULcK-OfY6oARYSSenbk=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>Logic Heart</t>
+    <t>Kalyananagar</t>
+  </si>
+  <si>
+    <t>Fueled by a fundamental belief that having access to financial services creates opportunity, PayPal (NASDAQ: PYPL) is committed to democratizing financial…</t>
+  </si>
+  <si>
+    <t>HP is the world’s leading personal systems and printing company, we create technology that makes life better for everyone, everywhere.</t>
+  </si>
+  <si>
+    <t>FullThrottle Labs primarily builds B2B business productivity applications ranging from team management software, hiring automation tools, marketing automation…</t>
+  </si>
+  <si>
+    <t>Minimum 4 years experience in Python &amp; knowledge in Kafka.
+Minimum 4 years using MySQL/NoSQL and have the ability to evaluate and write efficient queries.</t>
+  </si>
+  <si>
+    <t>An experienced and expert Python Programming Trainer is required to teach Python Programming to a batch of students online.</t>
+  </si>
+  <si>
+    <t>Primary Skills : Python Web Development.
+Good to have Cloud-AWS.
+Demonstrated experience with service-oriented architecture (SOA) and distributed software…</t>
+  </si>
+  <si>
+    <t>Strong in python programming should have 4 + years of experience in python.
+Strong in big data should have 2 + years of experience in big data.</t>
+  </si>
+  <si>
+    <t>Python Developers with 1-3 years of experience in Data Science/ML/ AI related projects using Scipy, Numpy, Keras, Django, NLP, Neural Networks, Tensor Flow.</t>
+  </si>
+  <si>
+    <t>Greetings from Pragati HR Services!!!.
+Currently we do have a job opening with one of our esteemed CLIENT.
+Please find job details below: *.</t>
+  </si>
+  <si>
+    <t>We are a leading German renewable energy firm.
+We work using cutting-edge computational tools to solve hard problems in physics and engineering to help make the…</t>
+  </si>
+  <si>
+    <t>HSN is looking for an outstanding Full stack python developer, who is highly proficient in creating fast loading websites — either using a standard CMS…</t>
+  </si>
+  <si>
+    <t>Python developer with 3-6 years of experience.
+At least 2 years experience in Django framework Django REST framework.
+Salary: ₹300,000.00 to ₹500,000.00 /year.</t>
+  </si>
+  <si>
+    <t>Functional Job Title : Assistant Manager for Capital Analytics &amp; QIS.
+Reports to : Regulatory Reporting COE Center Head.
+Knowledge of Hyperion Essbase a plus.</t>
+  </si>
+  <si>
+    <t>Dell provides the technology that transforms the way we all work and live.
+But we are more than a technology company — we are a people company.</t>
+  </si>
+  <si>
+    <t>We are Looking for a Web Developer with 2+ years of professional experience.
+Bachelors Degree required in fields such as Computer Science, Engineering.</t>
+  </si>
+  <si>
+    <t>Epsilon® is an all-encompassing global marketing innovator, supporting 15 of the top 20 global brands.
+We provide unrivaled data intelligence and customer…</t>
+  </si>
+  <si>
+    <t>WhiteHat Jr* was created to solve the #1 gap in the global school system today.
+Today, in the computer age, less than 1% of schools teach coding in early…</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfIIRd07bwgAAuo0jGM4AJvkQPNXko4XibGYzbPJtM3d6YIAQh6CyjlC0rFZbb2LBgggK3KTiS_91yEgpDCaSWbPl3maMbNpoPjZPK_LSybhte7KL-EY-EqLU3LbqertMI2y4N2-p0Q1uf1VyH9QNk7Q3Miz4gbXt3pJUWCBsjv5u8a3kTDFlWQWpz_TXZjt4Xo_ap-Fdk2aFDgPYXrZu72sOS4aUpAhdFJGQAmKqO1chcxo0A5UpEtC-J-JR4i3uCNoUgjzmOVmaOEYXsAUwM7X3F6zB6XiTAMT3Q9uqAJ3zv2MAUhikFmN10_mhYG99iX1DZ7fgHOsd5lDQo9_tpzHChqMa46bnXSOFXv2_sEDdTaJTbEY1euqJyV-bcSEtJxQdU83roEiwoRyeQYN7AIa8G-VHl4aKCTT65ZzTveuuA==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C4JTuWysBZGWr3ScYyn1q3GP1Wt9Y6KOMkEf9pRAXJOefEmXwTDv0x7eeR7AMe8ZOx9M3c_UwwrbXYzn1EWEl_ZLmMqKLcjYs43715b_l_CJ3MgC53MBK_5It5YwIXhPWc24TMtgAt-y3W_uXULClB-osbWE54pFWzZlxEhSZn8bjgSOUoJHdO1qEOzdXHeBuaIP8xTtkeevblYPm8-gQRFt5e8gGtTRIvsXMlAvCCxe-21nLuWgCHIu5WQJQa-TSHulEx59qo_nop0CznXNyfaOoe8wVcKtRgPeHBMNbICnAtYwnZNQvlLYE5Ex99v7QQD51I7CVcYp_rVqSDVDc70LXhjwLVzCBUvLApgRUruHfKqgDpC4yu0OO6qNdjNufZvC8G7VK10HGTkwHmNcwB8OIx3lNCo9nKNiqtXVS2wxohWgfclv6veihCInUhTRZLZOtQlPqp_neTEzkbVpr5TwGVfauG54W7xpd7W9DL7m3FT6xIi0jjFO8_e_A4R8yKmXkIzupgNL-YEGJpEdGErDMKmh6DcgkKdFFPqv7EPMVuIMkKCYz6x2t2RU8mkX7K1R_rnIos-zzuvWfIgh_nQ8F9Zv6gN9Fanp4Gu1ZBizRJxykOxZz5eKhVsKWvs3o7Si-kvH8ADZWMeHEGVcYXrxb24xwQmGt_L541H_QOsv8lZXJiFqemlelBU0SsM7tCmpIk-IgFnrhX3q10YA1zg8jdpebtBOmLBeDRMIDrNEKl_DMToBuMLpDGgYm0ZiPdEjHJq1y4xxANNge3x-sD2BoqeFC5zcOFyrCaDCICy-Jnsd6TmYZQy8NUBBUKFZNOb0oIhxckgZ0Nv459cB9EU7DDQyP1UBRvtpf4SZr0ZvFr6TeLPiN-zMLxHBSJCmRDxCah8zrSLrIl9GPYslleZvdLs_6c37U63YuwiJMVVe6JJM4_9J6T&amp;p=1&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=b7d7c1b1e83b95e0&amp;fccid=229cfdb3b3f87b98&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Frescano-Infotech-Pvt-Ltd/jobs/Senior-Python-Developer-bb1a90229a3b2d60?fccid=dd7bc35efd16d882&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Mera-Medi/jobs/Python-Programming-Trainer-9867829b8eabc70f?fccid=3008ef07728b90f6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/CGI/jobs/Python-Developer-86db388eee003dcb?fccid=983662ee15b7809a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Biztechnosys-infotech-pvt-ltd/jobs/Senior-Python-Developer-b03e9aeb1ab118d2?fccid=c22a48930b0a8fe7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=d122edd32cbe77f5&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Pragati-HR-Services/jobs/Opening-5d52e35d33d8383d?fccid=66a7982193f4a6d7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=179d3d1e7dd03ac0&amp;fccid=092194bd56143cc5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Homescreennetwork/jobs/Python-68ff59187d900551?fccid=4a54268a721edaf3&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Entity-Vibes/jobs/Python-Django-Developer-e57e92afb364da80?fccid=85b03502b722dc49&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lTXsMV8B2K_cVhsWpOFxw47LPA7U_1_Er0_W3muIU8l7qxS6nnnHi-ySU2cvM86NBpLq9jb9N2qmsMKBTKcMdc8irrjsN5frvmHkeJWd0bo5jUnlNjMWuPyPv8Gz3NZ8DHjVngfcZ3a8UhTKJEoIUVqIrYiAUmVPPoGZxxjnr75EZ5xgsXPy1EE3FQj2GCHGK-Cll_tP2g2FXWWvgkNJ9U0ghpCbIr0vx_dom8lvvux2YvqAJtUYwt2yGJkkrTZDpEEkwNabxQncLAKg5i8FvyQDVW3tnHVgWFjLJL6pAX0knnv5XMVtq6maPlqh6iDKr00vEJZGzg_LCbyIG2UvwecCqZbsZKg3O4LEshVs5fhPgtBbvKivh27aBaBCwHHTp_SCdw8zMdiHNjnJMVw_tHHIA2MV7wLYxK3X6kfRLxoEUuKhp7e3oWQNpuIc4VlgGQWz6icUcx2H8N_b0FkUYdBfWw_0KDRcpZ8VTgWogCzV5oVaOTLpEnnw5y0eF9_sFnJahuwfUre5Or-scEP5JuJ2MXrqXk0KVAovTSVncUl3kVptwA5xeZmQaXwZavUdufnxzbr_Bp0Q==&amp;p=12&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BdeCH3wzlYpD364Be5JbcCJKJ8S-TlvC_iwEgvLx09tUWj613drhJzztLF9k6Skca6zIgnUx6yd09vg_tHjo3WUcPeyT18fqv4uMv30rvAG9YTmvifGFS7tLqfZ_uuHEBn_3HvZqnder4Nk0heMsaLkrf4L3-Yr9Wh3P_yiCHCAwRjTN3A0w3gSw7qdN8GusrtXD9wVbquRfsuoB6YJbsA7SbOuFl3IDYTiEZ9CnPIvI7eCBbQOIlw5hNKY-mJvxN3YmYBC9gIYOyYjR-Z8qmGGkdoKV0c9Z1UZhOR0ZoPdBbH0wk6_lFZdETYgDfL8vwAtUAOtB2QX-pTk55D1Fs54VX2HQhuFG8JgpApLD6itr5mp6HKZYJ1Nj9JUFde3Rw_jehQVAVCy8OKgWvqB-4IIjOXkiho5ux7UqArkJMYWLvhh5dVT3F96qX_vAOIP6P69iFPBOcRToxHXb7E5UqF5ovoJnTDWqTbBJRSAxRMUQrdpMccsSiJn7qY7tssTg5BJdxX116MimBvhSAjEUIRBUyZUMSg_U3g3R08UTLJpvSkQe66nIEH148DQdG3-EfDAT14YQzFJh0cSH0igOaSAwsi9SjImMVgdGELd7OZgcQVLotr6JHbvSd6uWgmtsoaFTBrsAodkPx53CEulv_WE1oiRCEl4TMAlJjAscpefkjEWgheON_uNNA8u3e5-wYGEzB71VyNFPiUWiIWQj65PzspwLukLcu-a-pvN8K6qUuOi_PLdUWggYH57ftgih_Uwph5M5hW7cNfHpshK8fs9NNIIm_RzzvFe5htFd19kxd7j89WWGAxB0P2wVZpsbROYGPtvlOj6KLEudBdLLC1QVf57eWIDAmamibT5OU9YLjdyeyBII2oJKJOXtPhwUTNUTpBvRFxFNq_Mj8xcLDC5X2EXUQd3qRN8cMJkHED1UhhH-XusKFQFzCmf3rQLEarnfLZAb6G2fxPslWkcI9l6lTkWD4Bv6mhixLK6p9BaEI4i-2VLzQq3AWSQr-HTTo=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CRUsbPhP1SIxnKY9olx8iHjNYC-Od5Ldwl5OmahmkXuQb9kS3uTBPFVdjV3cdW-6juj99iTaCJiikjPmH-8bkVWVBIK35xtfxAs8x_hse5ws1IAgOw4IOW021mkz5_50qnAojBtkEVfEL_82LP8j37Mf248EZhLRlefSUDyXGjnLAqz8wQIM-R4rm6yS8gh4DrRC1zXmpU_f-GqRi7-CMWk_2a_mgED8nPGcpCBoZ2bJniPYv6B36ywPM-WHOeu_NqQJu2_jbKAYXvTwcWQS19EtJFjg87B1MWwaSElLsYt0VfMHISI4BK9HR50vqGWSPItjHXbphPKt3RiP5WdNXWZWlXvRBAXGFpZLaMtkymxdIPKtCHrKA_LcecakoVrNLG1ctpIE-z7yhdqTWSIKjC0NkYDduNWj0Xe4bBqpN7TfhRVqGpV9t-&amp;p=14&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuMI0dftGQ6-O3wx_ScJKJgkH0l-GkNO27e5DIKmCGbsBBdGeGlCQNJlrfrxp7UWXc6wjmdVOnGE_k9JwbEHs9NIjW4PiukbLa6VxdIASNCUXYLBg7JtobDWDGkwOCJJWdAomkK8_aIyTpeTZS35ptdCgdApIB6Kvii9AzSnpUFzNoLnRQ8UW8px4rnD5LfTNxpBunaQlxUVXlFOthXKuHlqfmdkc10PChBwHnUN6fmBLxVhlnrUxff1vPbQ1hTjPzCk2LiWsrA4HJccZD_-u9mFXeWc2oeuwDiRMwJDveRrR-4j78N8fZsD9vDK9zeIsBbGZqGIMCiVjkoPzMWHIubLQT1UyMi0pBwQJg0Ydspj6Q==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DeaRJ22kxg2JqrXyYf-GtO-_gK1Fzeq_EbcCN_nic61FvK2w2XEXvdTXwDDLQRWDyr0ztTlpcQ5Lf_pxOYwRW0qi0TlFkSXouYGYw0jaOpENgqXNTrKwz3yB2f8jtRIsMBNh1eF1l0TKb_0AnR3w8tZJfj-4fE-d9_Po9IlDqusLWEtLlrkqLB1HiN-dXM_RXQrssVtL9ik4oaE8M5HVA2U7KHTUl4vcMEGfhCaKZxhsuPkgoWbeRwFHdOybz-6kBmHDk7x2OAUwQa0AxX1kNqf3XGa6kxfv50jsJ6VQ_MAeZv_4IfVvBI4rB0E5_o7xB-xhsv_g0ljNp1cqjAW79-OxAU2EpYbzUOC_2FATE_h0-npI2Wvgif1G8ZSyZOPA1uD140hogBjh3uVfj_2AF7CnmGn8bFkoaBLV2YTtPEsjSCDV-u3XiA7W2ZNWALltHU7IFvSHc8YCCXMWWoUZk3EqqaFfSpbWq6Dfr-k2vUV-4pdIP8sOmMZ3lVa_wzuak1X7h0KapcceDFFC3iz8qEYjzb67dp4U_ihO7cQ9f3rvNqTsNAHCNphgC5N0NewqQPwZ7CVSr9VQ==&amp;p=16&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>DM CONSULTING INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>DEXCEL ELECTRONICS DESIGNS</t>
+  </si>
+  <si>
+    <t>FresherMart</t>
+  </si>
+  <si>
+    <t>menorah personnel management india pvt ltd</t>
+  </si>
+  <si>
+    <t>Mobiloitte</t>
+  </si>
+  <si>
+    <t>Beyondweb</t>
+  </si>
+  <si>
+    <t>2COMS CONSULTING PVT LTD.</t>
+  </si>
+  <si>
+    <t>peopleplus professional services pvt ltd</t>
+  </si>
+  <si>
+    <t>test and verification solutions</t>
+  </si>
+  <si>
+    <t>Arnold Consulting Private Limited</t>
+  </si>
+  <si>
+    <t>Tech Active Solutions India</t>
+  </si>
+  <si>
+    <t>UNIVERSAL HUNT</t>
+  </si>
+  <si>
+    <t>Replicon Software India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Ramsol</t>
   </si>
   <si>
     <t>PRATHIGNA BUILDTECH PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>Bloom Consulting Services</t>
-  </si>
-  <si>
-    <t>TECHS TO SUIT INC</t>
-  </si>
-  <si>
-    <t>Augusta Infotech</t>
-  </si>
-  <si>
-    <t>TAURUS HARD SOFT SOLUTIONS</t>
-  </si>
-  <si>
-    <t>infortecor solutions pvt ltd</t>
-  </si>
-  <si>
-    <t>test and verification solutions</t>
-  </si>
-  <si>
-    <t>I2SOFT TECHNOLOGIES</t>
-  </si>
-  <si>
     <t>HR DEVI AND ASSOCIATES</t>
   </si>
   <si>
-    <t>Pentagon Consultancy Services  ( PCS )</t>
-  </si>
-  <si>
-    <t>HyreFox Consultants</t>
-  </si>
-  <si>
-    <t>CRPL - INDIA</t>
-  </si>
-  <si>
-    <t>menorah personnel management india pvt ltd</t>
-  </si>
-  <si>
-    <t>Meteonic Innovation</t>
-  </si>
-  <si>
-    <t>coralhire technologies pvt. ltd</t>
-  </si>
-  <si>
-    <t>VARITE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>spring  ,  spring boot  ,  rest  ,  java  ,  rest api  ,  java ee  ,  j2ee  ,  hibernate  ,  hibernate framework</t>
-  </si>
-  <si>
-    <t>spring framework  ,  java  ,  spring security  ,  j2ee  ,  angularjs  ,  javascript  ,  jquery  ,  ionic framework</t>
-  </si>
-  <si>
-    <t>rest api  ,  hibernate  ,  messaging  ,  sql  ,  spring  ,  java  ,  wsdl  ,  xml  ,  unix  /  linux  ,  soap</t>
-  </si>
-  <si>
-    <t>python  ,  junit  ,  ant  ,  maven  ,  windows  ,  fx  ,  swing  ,  java  ,  git  ,  jtest  ,  linux  ,  telecom  ,  javafx  ,  software developer</t>
-  </si>
-  <si>
-    <t>object oriented analysis  ,  mentor  ,  technical leadership  ,  application design  ,  database design  ,  java  ,  technology management  ,  uml  ,  design patterns  ,  system development  ,  data structures  ,  client server  ,  mentoring  ,  application development  ,  system architecture  ,  ooad</t>
-  </si>
-  <si>
-    <t>java  ,  java programming  ,  java developer</t>
-  </si>
-  <si>
-    <t>spring  ,  spring framework  ,  java  ,  aop  ,  web technologies  ,  j2ee  ,  object oriented programming  ,  jsf  ,  java programming  ,  java developer</t>
-  </si>
-  <si>
-    <t>java  ,  java developer</t>
-  </si>
-  <si>
-    <t>rest  ,  rdbms  ,  hibernate  ,  java developer  ,  spring  ,  java  ,  j2ee  ,  soap  ,  middleware</t>
-  </si>
-  <si>
-    <t>rest  ,  oracle  ,  hibernate  ,  java developer  ,  spring boot  ,  database  ,  java  ,  database programming  ,  git  ,  spring mvc  ,  j2ee  ,  debugging</t>
-  </si>
-  <si>
-    <t>spring  ,  spring framework  ,  java  ,  rdbms  ,  postgresql  ,  j2ee  ,  hibernate  ,  java developer</t>
-  </si>
-  <si>
-    <t>spring  ,  java  ,  j2ee  ,  mysql  ,  hibernate  ,  java developer</t>
-  </si>
-  <si>
-    <t>hibernate  ,  java developer  ,  docker  ,  spring  ,  database  ,  security  ,  java  ,  xml  ,  j2ee  ,  mysql  ,  html  ,  mongodb</t>
-  </si>
-  <si>
-    <t>java  ,  rdbms</t>
-  </si>
-  <si>
-    <t>spring boot  ,  java  ,  java developer</t>
-  </si>
-  <si>
-    <t>soa  ,  spring  ,  security  ,  java  ,  linux  ,  j2ee  ,  program manager  ,  data structures  ,  object oriented programming  ,  c  ,  windows  ,  java developer  ,  messaging  ,  network management  ,  service oriented architecture  ,  sql database</t>
-  </si>
-  <si>
-    <t>spring boot  ,  java  ,  aop  ,  git  ,  written communication  ,  j2ee  ,  jee  ,  hibernate  ,  java developer</t>
-  </si>
-  <si>
-    <t>spring  ,  elastic search  ,  database  ,  java  ,  git  ,  testing tools  ,  j2ee  ,  api  ,  rest  ,  junit  ,  java developer  ,  nosql  ,  spring boot  ,  soap</t>
-  </si>
-  <si>
-    <t>rest api  ,  java developer  ,  java</t>
-  </si>
-  <si>
-    <t>rest  ,  junit  ,  rdbms  ,  oracle  ,  soa  ,  maven  ,  hibernate  ,  jquery  ,  sql  ,  eclipse  ,  spring  ,  java  ,  j2ee  ,  technical skills</t>
-  </si>
-  <si>
-    <t>rest  ,  python  ,  java developer  ,  java</t>
-  </si>
-  <si>
-    <t>fundamentals  ,  css  ,  jsp  ,  hibernate  ,  ajax  ,  jquery  ,  spring  ,  java  ,  linux  ,  j2ee  ,  html  ,  solaris  ,  c  ,  javascript  ,  java developer  ,  struts  ,  servlets</t>
-  </si>
-  <si>
-    <t>fundamentals  ,  algorithms  ,  java developer  ,  memory management  ,  java  ,  oops  ,  j2ee  ,  data structures  ,  mongodb</t>
+    <t>Han Digital Solution  ( P )  Ltd.</t>
+  </si>
+  <si>
+    <t>Webomindapps Private Limited</t>
+  </si>
+  <si>
+    <t>arise global pvt ltd</t>
+  </si>
+  <si>
+    <t>python  ,  junit  ,  sql  ,  django  ,  oops</t>
+  </si>
+  <si>
+    <t>python  ,  python scripting  ,  software engineer</t>
+  </si>
+  <si>
+    <t>python  ,  data extraction  ,  django  ,  git  ,  rest api</t>
+  </si>
+  <si>
+    <t>python  ,  django  ,  web developer</t>
+  </si>
+  <si>
+    <t>python  ,  telecom domain  ,  web technologies  ,  bi  ,  data warehousing  ,  web development</t>
+  </si>
+  <si>
+    <t>python  ,  java  ,  ror  ,  cryptography</t>
+  </si>
+  <si>
+    <t>python  ,  django  ,  mysql  ,  snmp  ,  technical skills  ,  ruby</t>
+  </si>
+  <si>
+    <t>python  ,  storage  ,  security  ,  python scripting  ,  object oriented programming</t>
+  </si>
+  <si>
+    <t>rest  ,  python  ,  junit  ,  django  ,  xml  ,  oops  ,  ooad  ,  big data</t>
+  </si>
+  <si>
+    <t>rest  ,  python  ,  junit  ,  django  ,  xml  ,  oops  ,  ooad</t>
+  </si>
+  <si>
+    <t>rest  ,  python  ,  debugging  ,  problem solving  ,  shell scripting  ,  unix</t>
+  </si>
+  <si>
+    <t>rest  ,  python  ,  database  ,  django  ,  git  ,  html5  ,  debugging  ,  svn  ,  javascript</t>
+  </si>
+  <si>
+    <t>algorithms  ,  python  ,  css  ,  rdbms  ,  html5  ,  bootstrap  ,  javascript  ,  jquery  ,  django  ,  git  ,  postgresql  ,  linux  ,  mysql  ,  html</t>
+  </si>
+  <si>
+    <t>c    ,  system security  ,  database  ,  apache  ,  oops  ,  data structures  ,  c#  ,  itk  ,  python  ,  c</t>
+  </si>
+  <si>
+    <t>python  ,  git  ,  postgresql  ,  system architecture  ,  infrastructure  ,  php  ,  api  ,  unix</t>
+  </si>
+  <si>
+    <t>python  ,  css  ,  mysql db  ,  django  ,  git  ,  html  ,  angularjs</t>
+  </si>
+  <si>
+    <t>fundamentals  ,  python  ,  github  ,  javascript  ,  django  ,  devops  ,  mysql  ,  mvc</t>
+  </si>
+  <si>
+    <t>senior software engineer  ,  git  ,  senior software developer  ,  debugging  ,  python</t>
+  </si>
+  <si>
+    <t>bi  ,  sql  ,  postgresql  ,  couchbase  ,  mysql  ,  mongodb  ,  python  ,  oracle  ,  nosql  ,  django  ,  written communication</t>
+  </si>
+  <si>
+    <t>fundamentals  ,  python  ,  django  ,  oops  ,  html</t>
+  </si>
+  <si>
+    <t>python  ,  css  ,  oracle  ,  bug fixing  ,  javascript  ,  jquery  ,  sql  ,  nosql  ,  database  ,  django  ,  mysql  ,  html</t>
+  </si>
+  <si>
+    <t>python  ,  github  ,  sql  ,  nosql  ,  django  ,  api</t>
+  </si>
+  <si>
+    <t>python  ,  css  ,  javascript  ,  jquery  ,  django  ,  git  ,  postgresql  ,  xml  ,  software engineer  ,  html  ,  mvc</t>
+  </si>
+  <si>
+    <t>python  ,  c  ,  html5  ,  bootstrap  ,  nosql  ,  sql  ,  database  ,  node.js  ,  java  ,  web technologies</t>
+  </si>
+  <si>
+    <t>python  ,  information technology  ,  rest api  ,  django  ,  java  ,  software developer</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Job Summary: We are seeking a highly-skilled ,  experienced Java ,  Java EE developer to join our expanding development team. In this role ,  you will help develop and design ... More Details</t>
+Python Developer Python , OOPS concept. Django GitLab ,  Jira ,  Confluence ,  Jenki | Bangalore About DM Consulting  ( India )  Pvt Ltd DM Consulting is a dynamic Staffing Ag... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-JAVA  / JAVA SCRIPT DEVELOPER4 Years - 8 MonthsJob DescriptionLooking for Candidates with minimum of Bachelors degree. Looking for software engineers for senior  ( 4  years ) ... More Details</t>
+Requirement Python DeveloperLocation BangaloreNo. Of Positions 4Experience: Software Engineer  ( SE )   2 to 3 years  ( 2 positions ) Sr. Software Engineer  ( SSE )   3 to 6 Y... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-JAVA  / JAVA SCRIPT DEVELOPER4 Years - 5 MonthsJob DescriptionLooking for Candidates with minimum of Bachelors degree. Looking for software engineers for senior  ( 4  years ) ... More Details</t>
+Duties and ResponsibilityDevelop Web Application in Python with DJANGO FrameworkBuild efficient back-end features in PythonIntegrate front-end components into applicationsHand... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-About the Job  Strong In Core Java Strong Spring Experience Strong Background In Developing And Deploying Software That Runs In A Real-Time ,  Multi-Threaded Environment Worki... More Details</t>
+Looking for Python Developers in a Leading IT company.!!! Confidential 2 BangaloreKeyskills :Python ,  DjangoJob Description :Requirements:Python Web Developer responsible for... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-We have an Opening for Core java with java FX role for Bangalore location. Looking for skills:Core Java  ( key skill ,  4 / 5 proficiency /  /  JavaFX / Swing / Jface  ( Good ... More Details</t>
+Python Developer Python Developer | bangalore About DM Consulting  ( India )  Pvt Ltd DM Consulting is a dynamic Staffing Agency that connects you to the best talent that you ... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Job DescriptionHiring ,  Technical Architect  / Lead in Bangalore.must skillsEducation Mandatory - B.E / B.TechOnly Bangalore based candidates will be considered for this role... More Details</t>
+Experience with Solidity Smart Contract and Dapp development such as- Solidity ,  Rust ,  Lisk.Experience writing code that communicates with the Ethereum or Qtum blockchain.m... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Company Description Taurus Hard Soft Solutions Pvt LtdJob Description We are Looking for an exciting Candidate who has a strong background as a Java Developer and Creates user... More Details</t>
+Description Programming experience in MySQL ,  database architecture. Experience with Ruby ,  React JS ,  Mongo DB. Hands on experience into Python Development  ( Django frame... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Title Java Developer Exp 1-4yrs Categories Salary Best in the industry Start Location Bangalore Job Information Object Oriented Programming in Java   J2EE Frameworks like Spri... More Details</t>
+About Us :2COMS is a Human Supply Chain Management company. With over 2500  employees and more than 7 branches ,  we offer a wide variety of services ,  connecting more than 4... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-JD913 - Java Developer Key Skills : Core Java ,  Spring ,  Hibernate ,  JAX-RS  ( REST )  ,  JMS ,  RDBMS  ,  Angular JS  , Java / J2EEExp : 5 - 9 Sal : Loc : BangaloreClient ... More Details</t>
+Overview DescriptionOverall Experience from 7  12 years out of which4  years of relevant experience in Python with exceptional core Python and minimum 2 years with Django Rest... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Job Title:Java DeveloperJob Code:SWDIND050418_04Job Description Java- J2EE  ,  Hibernate ,  Spring MVC frameworkSpring BootReact JS / NativeMongo DBREST service development in... More Details</t>
+Overview DescriptionKey skills : Python and Django Rest framework  (  Web application development ) 4 years of experience in Python with exceptional core Python and Django Res... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java Developer3 Years - 5 MonthsJob Description3 to 5 years of Coding Experience in JAVA ,  J2EE ,  SPRING ,  HIBERNATE ,  COLLECTIONS.  Experience with RDBMS preferably Postg... More Details</t>
+Job Title:Python developerJob Code:SWTIND210618_38Job Description Proficient in Python with strong problem solving skills [2- 4 yrs experience]Good working knowledge of REST A... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java DeveloperJob Code : I2S-JD-17 / 11Experience : 0 - 1 yearKeyskills: Core Java ,  J2EE ,  Webservices ,  Spring ,  Hibernate ,  Java Script ,  MySQL.Location : BangaloreAp... More Details</t>
+Job DescriptionExpert in Python ,  with knowledge of at least one Python web framework such as Django ,  Flask ,  etc. depending on your technology stack. Experience in develo... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java Developer2 - 6 YearsBangaloreJob DescriptionRequired Skills:java ,  J2ee ,  Spring ,  Hibernatemysql ,  Mongodb ,  Database Schema Designandroid ,  Xmljob Specifications:... More Details</t>
+Role Type: Full Time Work Experience: 1  3 YEARS Location: BangaloreJob Description: Architect ,  develop and deploy software using Django /  Python.Strong hands on experience... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Designation : Java Architectures ( 8  yrs ) Experience : 8  yrsLocation : Bangalore ,  Chennai ,  Pune ,  Hyderabad , KolkataSalary : Market StandardsClient Name : MNCEducatio... More Details</t>
+Job Description:You will be part of the team focused towards development of software products. You will be responsible for developing a rich client application to view DICOM I... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Job Description:Experience in JAVA  ( 5  Years ) ; Spring Boot  ( 1.5 years )  implementation.Preferred experience in Pivotal Cloud Foundry ( PCF ) .Other Details Industry: IT... More Details</t>
+300 , 000 - 500 , 000 INR  ( PA ) Pune , Maharashtra , IndiaSkillsPython Jango Python Developer PHPExperience 2 to 4 Years Industry Travel  /  Tourism  /  Ticketing Functional... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java DeveloperCorporate ResourcesLocation : Bengaluru  /  BangaloreExperience : 1 to 4 Year ( s )  Not Disclosed by RecruiterJob Description Send me jobs like thisQualificatio... More Details</t>
+500 , 000 - 600 , 000 INR  ( PA ) Bangalore , Karnataka , IndiaSkillsPython MySQL DB HTML CSS AngularJS AWS DjangoExperience 1 to 3 Years Industry IT - Software Services Funct... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Looking for Java Developer - in a Leading Product  &amp;  Service based company.!!! Menorah Personnel Management India Private Ltd 2 BangaloreKeyskills :*Java *J2EE *Spring Boot /... More Details</t>
+2 , 300 , 000 - 2 , 500 , 000 INR  ( PA ) Bangalore , Karnataka , IndiaSkillsPython Javascript Django MySQL Redis Celery AWS / EC2 / ELB / S3 / DynamoDB ElasticSearchExperienc... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Job Requirements: 5  years of experience in Software Development5   or more years of extensive experience in Java  /  J2Ee ,  Spring ,  Spring Boot developing complex enterpri... More Details</t>
+Python DeveloperBangalore ,  IndiaPosition Overview:We are expanding our SaaS solution based on market needs and are looking for a Senior Software Developer  /  Scrum Master t... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-JD1133 - Java Developer Key Skills : Core Java ,  Rest API candidates willing to Work in ClojureExp : 3 - 9 Sal : Loc : BangaloreClient of Bloom Consulting ServicesAbout the J... More Details</t>
+Company: Global Financial CompanyExperience: 5 - 7 YearsJob Location: BangaloreKey Skills: Core python ,  Application Development in PythonMust Have Skills: Core python ,  App... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java Lead Technical Skills Minimum 6 to 8 years of Java  /  J2EE integration technologies and frameworks ,  experience involving all the phases of software development life cy... More Details</t>
+Python developer3 Years - 8 MonthsJob DescriptionRole: Python developer Experience:3 to 8yrs Skills: Python developer ,  Django ,  HTML ,  Django Framework Job Description: St... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-Java Developer Req I D NU_Java DeveloperRate DOEPrimary Skills Java and PythonDescriptionLocation: Bellandur BangaloreDescription:Developer is responsible for building a web a... More Details</t>
+Job Description:Backend: Python  ( Pyramid / Flask / Django ) Database: SQL Server / Oracle / MySQL / Postgres SQL / Any relational databasesWeb Frontend: HTML 5 ,  CSS 3 ,  J... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-JAVA DEVELOPERCorporate ResourcesLocation : Bengaluru  /  BangaloreExperience : 1 to 3 Year ( s )  200000 - 400000  ( Per Annual ) Strong in core Java / J2EE fundamentals Good... More Details</t>
+Python Developer2 to 7 Years BengaluruJob Description :In-depth expertise of the engineering life cycleAbility to work in diverse teams with both present and off-site peers3  ... More Details</t>
   </si>
   <si>
     <t>Job Description:_x000D_
-About the Job Job Description:We are looking for a proficient candidate in Java / J2EE ,  SpringMVC ,  MongoDB ,  Microservices. Excellent understanding of computer science fu... More Details</t>
-  </si>
-  <si>
-    <t>1 - 5</t>
+Urgent Opening For Python DeveloperEXP: 2 - 6 Years Job Location: Trivandrum Technopark Job Description for Software Engineer / Sr. Software Engineer  ( Python ) : Experience ... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Job DescriptionStrong experience in Python. Strong experience with SQL Server ,  NoSQL or other database technology. Experience with Object-Oriented Design and SOLID principle... More Details</t>
+  </si>
+  <si>
+    <t>Job Description:_x000D_
+Python Developer2 - 4 YearsBengaluruJob DescriptionDear Candidate , Greeting from Arise Global Services ( A Digipropel Company ) !!!We are hiring for one of the reputed client... More Details</t>
+  </si>
+  <si>
+    <t>5 - 8</t>
+  </si>
+  <si>
+    <t>3 - 6</t>
+  </si>
+  <si>
+    <t>2 - 4</t>
+  </si>
+  <si>
+    <t>2 - 5</t>
+  </si>
+  <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>20 - 23</t>
+  </si>
+  <si>
+    <t>7 - 12</t>
   </si>
   <si>
     <t>4 - 7</t>
   </si>
   <si>
-    <t>0 - 3</t>
-  </si>
-  <si>
-    <t>8 - 10</t>
-  </si>
-  <si>
-    <t>1 - 6</t>
-  </si>
-  <si>
-    <t>3 - 6</t>
-  </si>
-  <si>
-    <t>1 - 4</t>
-  </si>
-  <si>
-    <t>3 - 5</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>2 - 7</t>
+  </si>
+  <si>
+    <t>5 - 7</t>
+  </si>
+  <si>
+    <t>3 - 7</t>
   </si>
   <si>
     <t>2 - 6</t>
   </si>
   <si>
-    <t>8 - 11</t>
-  </si>
-  <si>
-    <t>5 - 8</t>
-  </si>
-  <si>
-    <t>2 - 5</t>
-  </si>
-  <si>
-    <t>6 - 8</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-java-ee-developer-logic-heart-bengaluru-bangalore-1-5yrs-jobid-yB99IgViFL5zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-java-script-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-4-7yrs-jobid-lL__SLASH__qH1Xzz5xzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-java-script-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-4-7yrs-jobid-36IbJuYJe__SLASH__5zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developers-core-java-bloom-consulting-services-bengaluru-bangalore-0-3yrs-jobid-1WolBomwRDBzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/core-java-with-java-fx-techs-to-suit-inc-bengaluru-bangalore-4-7yrs-jobid-Lou4aVGd4idzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-architect-java-lead-java-designer-augusta-infotech-bengaluru-bangalore-8-10yrs-jobid-qZvRGu__SLASH__W8qJzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-6yrs-jobid-A6Sfc8uInNtzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-infortecor-solutions-pvt-ltd-bengaluru-bangalore-3-6yrs-jobid-5zthchuqt6lzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-4yrs-jobid-y3Sv7izwFQlzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-taurus-hard-soft-solutions-bengaluru-bangalore-1-4yrs-jobid-3jMmF9xEnihzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-bloom-consulting-services-bengaluru-bangalore-0-3yrs-jobid-DnXBeaJoAZFzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-test-and-verification-solutions-bengaluru-bangalore-0-3yrs-jobid-TunJGKhnQ4RzpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
-  </si>
-  <si>
-    <t>https://www.timesjobs.com/job-detail/java-developer-prathigna-buildtech-private-limited-bengaluru-bangalore-3-5yrs-jobid-TZ2KcKgHb__SLASH__1zpSvf__PLUS__uAgZw==-key-java-loc-198130&amp;amp;source=srp</t>
+    <t>6 - 9</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-dm-consulting-india-pvt-ltd-bengaluru-bangalore-5-8yrs-jobid-lJ32LNE__PLUS____PLUS__OFzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-dexcel-electronics-designs-bengaluru-bangalore-3-6yrs-jobid-J__SLASH__gP20P__SLASH__cX9zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-freshermart-bengaluru-bangalore-2-4yrs-jobid-vYGkh6Ix__SLASH__V9zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developers-menorah-personnel-management-india-pvt-ltd-bengaluru-bangalore-2-5yrs-jobid-Gy__SLASH__CW6eh5eBzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-dm-consulting-india-pvt-ltd-bengaluru-bangalore-5-8yrs-jobid-lVa3bMevBe9zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-mobiloitte-bengaluru-bangalore-0-3yrs-jobid-Wx__SLASH__bKViI0ktzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developers-beyondweb-bengaluru-bangalore-0-3yrs-jobid-VxZxpYgPGE5zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-develoepr-2coms-consulting-pvt-ltd-delhi-20-23yrs-jobid-__PLUS__lSstEEY5k5zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-lead-peopleplus-professional-services-pvt-ltd-bengaluru-bangalore-7-12yrs-jobid-__SLASH__lF__PLUS__tpAvI5pzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developers-peopleplus-professional-services-pvt-ltd-bengaluru-bangalore-4-7yrs-jobid-3QvmOg888CVzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-test-and-verification-solutions-bengaluru-bangalore-2-4yrs-jobid-zFR72okuyBFzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-arnold-consulting-private-limited-bengaluru-bangalore-2-5yrs-jobid-0UYdErDZcZ5zpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
+  </si>
+  <si>
+    <t>https://www.timesjobs.com/job-detail/python-developer-tech-active-solutions-india-bengaluru-bangalore-1-3yrs-jobid-__PLUS__TeHEKASnhBzpSvf__PLUS__uAgZw==-key-python-loc-198130&amp;amp;source=srp</t>
   </si>
 </sst>
 </file>
@@ -1349,37 +1416,37 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1393,37 +1460,37 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1437,37 +1504,37 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1481,37 +1548,37 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1525,37 +1592,37 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1569,37 +1636,37 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1610,40 +1677,40 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1654,40 +1721,40 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1701,37 +1768,37 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1745,37 +1812,37 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1783,43 +1850,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1827,43 +1894,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1871,43 +1938,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1915,43 +1982,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1959,43 +2026,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2003,43 +2070,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2050,40 +2117,40 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2094,40 +2161,40 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2135,43 +2202,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2179,43 +2246,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2223,43 +2290,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2267,43 +2334,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2311,43 +2378,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2355,43 +2422,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2399,43 +2466,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2443,43 +2510,43 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2487,43 +2554,43 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2531,43 +2598,43 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2575,43 +2642,43 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M30" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2619,43 +2686,43 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2663,43 +2730,43 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2707,43 +2774,43 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2751,43 +2818,43 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M34" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2795,43 +2862,43 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2839,43 +2906,43 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
         <v>44</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" t="s">
-        <v>42</v>
-      </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2883,43 +2950,43 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" t="s">
-        <v>42</v>
-      </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2930,40 +2997,40 @@
         <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
         <v>45</v>
       </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M38" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2974,40 +3041,40 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
-        <v>42</v>
-      </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M39" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3018,40 +3085,40 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3062,40 +3129,40 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M41" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3199,43 +3266,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3243,43 +3310,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3287,43 +3354,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" t="s">
-        <v>131</v>
-      </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3331,43 +3398,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3375,43 +3442,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3419,43 +3486,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3463,43 +3530,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3507,43 +3574,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3551,43 +3618,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3595,43 +3662,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3639,43 +3706,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3683,43 +3750,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3727,43 +3794,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3771,43 +3838,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3815,43 +3882,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3859,43 +3926,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3903,43 +3970,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4020,43 +4087,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4064,43 +4131,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4108,43 +4175,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4152,43 +4219,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K5" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4196,43 +4263,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K6" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4240,43 +4307,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4284,43 +4351,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4328,43 +4395,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K9" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4372,43 +4439,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4416,43 +4483,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J11" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4460,43 +4527,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4504,43 +4571,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M13" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4548,43 +4615,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4592,43 +4659,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K15" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4636,43 +4703,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J16" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4680,43 +4747,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="J17" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4724,43 +4791,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K18" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4768,43 +4835,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4812,43 +4879,43 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K20" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4856,43 +4923,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M21" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4900,43 +4967,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M22" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4944,43 +5011,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M23" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -4988,43 +5055,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M24" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5032,43 +5099,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5076,43 +5143,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -446,7 +446,7 @@
     <t>https://www.shine.com/jobs/java-python-developer/azmobia-telecom-pvt-ltd/10298017/</t>
   </si>
   <si>
-    <t>Software Engineer 3</t>
+    <t>Data Engineer</t>
   </si>
   <si>
     <t>Data Scientist</t>
@@ -461,43 +461,43 @@
     <t>Python Programming Trainer</t>
   </si>
   <si>
+    <t>Python Developers</t>
+  </si>
+  <si>
     <t>Sr. Python Developer</t>
   </si>
   <si>
-    <t>Python Developers</t>
+    <t>Python Development Internship</t>
+  </si>
+  <si>
+    <t>Python / Flask Developer WFH</t>
   </si>
   <si>
     <t>Job Opening - Data Scientist / Data Analyst (Python &amp; R Basi...</t>
   </si>
   <si>
-    <t>Python Development Internship</t>
-  </si>
-  <si>
-    <t>Python / Django Software Engineer</t>
-  </si>
-  <si>
     <t>Python Django Developer</t>
   </si>
   <si>
-    <t>US Reg Reporting (Capital Analytics) - Assistant Manager</t>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Embedded Engineer - (0 to 2 years)</t>
+  </si>
+  <si>
+    <t>Senior Software Development Engineer</t>
   </si>
   <si>
     <t>Principal Technologist</t>
   </si>
   <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Lead, Software Engineer</t>
-  </si>
-  <si>
     <t>Online Python Trainer (Female candidates only)</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
-    <t>PayPal</t>
+    <t>Alcon</t>
   </si>
   <si>
     <t>HP</t>
@@ -515,36 +515,33 @@
     <t>CGI</t>
   </si>
   <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
     <t>Biztechnosys infotech LLP</t>
   </si>
   <si>
-    <t>Careator Technologies</t>
+    <t>Senvion Wind Energy Solutions</t>
+  </si>
+  <si>
+    <t>Confluex Marketing Pvt. Ltd.</t>
   </si>
   <si>
     <t>Pragati HR Services</t>
   </si>
   <si>
-    <t>Senvion Wind Energy Solutions</t>
-  </si>
-  <si>
-    <t>Home Screen Network Pvt. Ltd.</t>
-  </si>
-  <si>
     <t>Entity Vibes</t>
   </si>
   <si>
-    <t>State Street</t>
+    <t>Treft Systems Inc</t>
+  </si>
+  <si>
+    <t>Yantravision Software Pvt Ltd</t>
   </si>
   <si>
     <t>DELL</t>
   </si>
   <si>
-    <t>Treft Systems Inc</t>
-  </si>
-  <si>
-    <t>Epsilon India</t>
-  </si>
-  <si>
     <t>Whitehat Education Technology Pvt. Ltd.</t>
   </si>
   <si>
@@ -554,7 +551,11 @@
     <t>Kalyananagar</t>
   </si>
   <si>
-    <t>Fueled by a fundamental belief that having access to financial services creates opportunity, PayPal (NASDAQ: PYPL) is committed to democratizing financial…</t>
+    <t>Whitefield, Bengaluru, Karnataka</t>
+  </si>
+  <si>
+    <t>3+ years of experience in writing code in spark engine using python, scala or java.
+Purpose of the role is to build is to design and build solutions to ingest…</t>
   </si>
   <si>
     <t>HP is the world’s leading personal systems and printing company, we create technology that makes life better for everyone, everywhere.</t>
@@ -575,11 +576,19 @@
 Demonstrated experience with service-oriented architecture (SOA) and distributed software…</t>
   </si>
   <si>
+    <t>Python Developers with 1-3 years of experience in Data Science/ML/ AI related projects using Scipy, Numpy, Keras, Django, NLP, Neural Networks, Tensor Flow.</t>
+  </si>
+  <si>
     <t>Strong in python programming should have 4 + years of experience in python.
 Strong in big data should have 2 + years of experience in big data.</t>
   </si>
   <si>
-    <t>Python Developers with 1-3 years of experience in Data Science/ML/ AI related projects using Scipy, Numpy, Keras, Django, NLP, Neural Networks, Tensor Flow.</t>
+    <t>We are a leading German renewable energy firm.
+We work using cutting-edge computational tools to solve hard problems in physics and engineering to help make the…</t>
+  </si>
+  <si>
+    <t>THIS JOB WILL START WITH A 3 MONTH PAID INTERSHIP OF INR 8000-INR 10000.
+CONFIRMATION TO RIGHT CANDIDATE ON 3 MONTHS OR EARLIER BASED ON PERFORMANCE*.</t>
   </si>
   <si>
     <t>Greetings from Pragati HR Services!!!.
@@ -587,43 +596,37 @@
 Please find job details below: *.</t>
   </si>
   <si>
-    <t>We are a leading German renewable energy firm.
-We work using cutting-edge computational tools to solve hard problems in physics and engineering to help make the…</t>
-  </si>
-  <si>
-    <t>HSN is looking for an outstanding Full stack python developer, who is highly proficient in creating fast loading websites — either using a standard CMS…</t>
-  </si>
-  <si>
     <t>Python developer with 3-6 years of experience.
 At least 2 years experience in Django framework Django REST framework.
 Salary: ₹300,000.00 to ₹500,000.00 /year.</t>
   </si>
   <si>
-    <t>Functional Job Title : Assistant Manager for Capital Analytics &amp; QIS.
-Reports to : Regulatory Reporting COE Center Head.
-Knowledge of Hyperion Essbase a plus.</t>
+    <t>We are Looking for a Web Developer with 2+ years of professional experience.
+Bachelors Degree required in fields such as Computer Science, Engineering.</t>
+  </si>
+  <si>
+    <t>Programming experience on Embedded Platforms.
+Strong C/C++ programming skills.
+Good Knowledge of Python Scripting.
+Linux Kernel Module Development.</t>
+  </si>
+  <si>
+    <t>RSA Security creates a wide range of industry-leading products that allow customers to take control of risk.
+As part of this role , you will be part of SecurID…</t>
   </si>
   <si>
     <t>Dell provides the technology that transforms the way we all work and live.
 But we are more than a technology company — we are a people company.</t>
   </si>
   <si>
-    <t>We are Looking for a Web Developer with 2+ years of professional experience.
-Bachelors Degree required in fields such as Computer Science, Engineering.</t>
-  </si>
-  <si>
-    <t>Epsilon® is an all-encompassing global marketing innovator, supporting 15 of the top 20 global brands.
-We provide unrivaled data intelligence and customer…</t>
-  </si>
-  <si>
     <t>WhiteHat Jr* was created to solve the #1 gap in the global school system today.
 Today, in the computer age, less than 1% of schools teach coding in early…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfIIRd07bwgAAuo0jGM4AJvkQPNXko4XibGYzbPJtM3d6YIAQh6CyjlC0rFZbb2LBgggK3KTiS_91yEgpDCaSWbPl3maMbNpoPjZPK_LSybhte7KL-EY-EqLU3LbqertMI2y4N2-p0Q1uf1VyH9QNk7Q3Miz4gbXt3pJUWCBsjv5u8a3kTDFlWQWpz_TXZjt4Xo_ap-Fdk2aFDgPYXrZu72sOS4aUpAhdFJGQAmKqO1chcxo0A5UpEtC-J-JR4i3uCNoUgjzmOVmaOEYXsAUwM7X3F6zB6XiTAMT3Q9uqAJ3zv2MAUhikFmN10_mhYG99iX1DZ7fgHOsd5lDQo9_tpzHChqMa46bnXSOFXv2_sEDdTaJTbEY1euqJyV-bcSEtJxQdU83roEiwoRyeQYN7AIa8G-VHl4aKCTT65ZzTveuuA==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C4JTuWysBZGWr3ScYyn1q3GP1Wt9Y6KOMkEf9pRAXJOefEmXwTDv0x7eeR7AMe8ZOx9M3c_UwwrbXYzn1EWEl_ZLmMqKLcjYs43715b_l_CJ3MgC53MBK_5It5YwIXhPWc24TMtgAt-y3W_uXULClB-osbWE54pFWzZlxEhSZn8bjgSOUoJHdO1qEOzdXHeBuaIP8xTtkeevblYPm8-gQRFt5e8gGtTRIvsXMlAvCCxe-21nLuWgCHIu5WQJQa-TSHulEx59qo_nop0CznXNyfaOoe8wVcKtRgPeHBMNbICnAtYwnZNQvlLYE5Ex99v7QQD51I7CVcYp_rVqSDVDc70LXhjwLVzCBUvLApgRUruHfKqgDpC4yu0OO6qNdjNufZvC8G7VK10HGTkwHmNcwB8OIx3lNCo9nKNiqtXVS2wxohWgfclv6veihCInUhTRZLZOtQlPqp_neTEzkbVpr5TwGVfauG54W7xpd7W9DL7m3FT6xIi0jjFO8_e_A4R8yKmXkIzupgNL-YEGJpEdGErDMKmh6DcgkKdFFPqv7EPMVuIMkKCYz6x2t2RU8mkX7K1R_rnIos-zzuvWfIgh_nQ8F9Zv6gN9Fanp4Gu1ZBizRJxykOxZz5eKhVsKWvs3o7Si-kvH8ADZWMeHEGVcYXrxb24xwQmGt_L541H_QOsv8lZXJiFqemlelBU0SsM7tCmpIk-IgFnrhX3q10YA1zg8jdpebtBOmLBeDRMIDrNEKl_DMToBuMLpDGgYm0ZiPdEjHJq1y4xxANNge3x-sD2BoqeFC5zcOFyrCaDCICy-Jnsd6TmYZQy8NUBBUKFZNOb0oIhxckgZ0Nv459cB9EU7DDQyP1UBRvtpf4SZr0ZvFr6TeLPiN-zMLxHBSJCmRDxCah8zrSLrIl9GPYslleZvdLs_6c37U63YuwiJMVVe6JJM4_9J6T&amp;p=1&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0B5gYbF--56VF-R_fhSNOm7FnnXFXRD7KozXp8q5hzPba4rUaIuPrehLxxLDxKPyFjbXJiLAC_832hbNNWDShPNyBstN4Dl_PJ3_j9vZDLV0xXZMLH2NgcB6zy7bHSJlGLWyJr4oYsuGhkumwQGZ8TW2ZJ85VenuK9XiHs7p_5YI_iwGlXWGCigC9E4FhFr-hty_cXHwrpqNOCWXA3MXrHRG1gmIzpInM-FlHSm44cxaYFrCOL597VEI3esE0gPmi5QAKeSvDJbdos29wdikVNzRNmyxQQT_D6fldp_JtWLhrMhD0C4WrSt90u0vWJ-8ZZ5WhNJC51kMEVUN5-7ysFiplzQpY50WeCOvp3XkwNKwtGnDOhklgQgdTVwHyrUZ5uPguDgcxlQEG2YtHw078Qjqmeme3O-1aCzzECxuIvm0Q2eEfCHAdNDXRxpeERFQHxgW6A4wF2M-12FxK5ezaQsvhYsaIkbcf4_Tuqa1UIQ5QFuTOehiydZkiegCwOHrOwfzvY-RLm7jU7mClvyJGb8ZQ69SJfzzD1BOdZHvU6MKrKz5u6iMSTrmV25hA3zAT_cBGYHkdNKeH9yPzkTZnm7&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C4JTuWysBZGWr3ScYyn1q3GP1Wt9Y6KOMkEf9pRAXJOefEmXwTDv0x7eeR7AMe8ZOx9M3c_UwwrbXYzn1EWEl_ZLmMqKLcjYs43715b_l_CJ3MgC53MBK_5It5YwIXhPWc24TMtgAt-y3W_uXULClBt-_MeCnCtC4-HSna4kdT3WZ2pv_e7shN2TFDSSr6FmEz12exql8BOrzvITYqBo6Q9_e8dxI43ZeXKv6TTn9rqXKppGmq2XjnnfHwhwUK-AaF6WAiLTxC8Hipj3xoDU3nhVU-5LazfXKEZbupxASvXQL59TTwZYGHDVR5FXzE39eoefHxQpmhYOs-qxmIcOgDZWhCIbi-4lhkkLDeolDZHWhaq9gM4dQlU0XFh_dOR_EGjOMbfw6B3CDYR1U42JxQuXPxFIRB7gaBKphFa_SLYwX_lSWizERuIgo_hBPIrNUrk8ufbkunMX9Y-vx6t-JqMWWYvDmLBaMhfgK8g_-XkgoU_QzHxmJ2aQ--hdarPfebH5ivkIQUwiXvXlSdrd7a_Kqnnop4_O18xzg-eO3XIgG62Ke_zHcAlzvjsS0PNy_weKJILeJyuVD_6teM-JFS63Nm2g7C_2AmV93qfPt-GdLUo9XFpTd6Oona-AV1mRpIG3fs90fcDbUTw0j7gXk21NxdryT-Ec8T2bx6MYuwa_57UQjK94BlRj8OdZ_UMs9kwYZvTNg7E9rXs_3oMk6srG-p6t_eaMu8Ec9987ovnguLO26EwxKXNJVooDyqLLekeKpJiLqbWXkGzhmM4sEcDi7VtPz9GQQHxQxMz03iD44PJgUUsdmi-FJxWT1OwOuqevVReKfldCXiWFcC5UORonWcl2WwN9Yr_McDfNMCiW-ESjKMcDKnt_vKjX-3idhRzSX0dHWMub0bBLnXiJvbpzZlFySNKh_450PeCiFc_3aSKZhx7n5n&amp;p=1&amp;fvj=0&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=b7d7c1b1e83b95e0&amp;fccid=229cfdb3b3f87b98&amp;vjs=3</t>
@@ -638,37 +641,37 @@
     <t>https://www.indeed.com/company/CGI/jobs/Python-Developer-86db388eee003dcb?fccid=983662ee15b7809a&amp;vjs=3</t>
   </si>
   <si>
+    <t>https://www.indeed.com/rc/clk?jk=d122edd32cbe77f5&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/company/Biztechnosys-infotech-pvt-ltd/jobs/Senior-Python-Developer-b03e9aeb1ab118d2?fccid=c22a48930b0a8fe7&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=d122edd32cbe77f5&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=179d3d1e7dd03ac0&amp;fccid=092194bd56143cc5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Confluex-Marketing-Pvt-Ltd/jobs/Python-a6d9b9e7af4fd27c?fccid=2a79f6d34557492c&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/company/Pragati-HR-Services/jobs/Opening-5d52e35d33d8383d?fccid=66a7982193f4a6d7&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=179d3d1e7dd03ac0&amp;fccid=092194bd56143cc5&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/Homescreennetwork/jobs/Python-68ff59187d900551?fccid=4a54268a721edaf3&amp;vjs=3</t>
-  </si>
-  <si>
     <t>https://www.indeed.com/company/Entity-Vibes/jobs/Python-Django-Developer-e57e92afb364da80?fccid=85b03502b722dc49&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lTXsMV8B2K_cVhsWpOFxw47LPA7U_1_Er0_W3muIU8l7qxS6nnnHi-ySU2cvM86NBpLq9jb9N2qmsMKBTKcMdc8irrjsN5frvmHkeJWd0bo5jUnlNjMWuPyPv8Gz3NZ8DHjVngfcZ3a8UhTKJEoIUVqIrYiAUmVPPoGZxxjnr75EZ5xgsXPy1EE3FQj2GCHGK-Cll_tP2g2FXWWvgkNJ9U0ghpCbIr0vx_dom8lvvux2YvqAJtUYwt2yGJkkrTZDpEEkwNabxQncLAKg5i8FvyQDVW3tnHVgWFjLJL6pAX0knnv5XMVtq6maPlqh6iDKr00vEJZGzg_LCbyIG2UvwecCqZbsZKg3O4LEshVs5fhPgtBbvKivh27aBaBCwHHTp_SCdw8zMdiHNjnJMVw_tHHIA2MV7wLYxK3X6kfRLxoEUuKhp7e3oWQNpuIc4VlgGQWz6icUcx2H8N_b0FkUYdBfWw_0KDRcpZ8VTgWogCzV5oVaOTLpEnnw5y0eF9_sFnJahuwfUre5Or-scEP5JuJ2MXrqXk0KVAovTSVncUl3kVptwA5xeZmQaXwZavUdufnxzbr_Bp0Q==&amp;p=12&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BdeCH3wzlYpD364Be5JbcCJKJ8S-TlvC_iwEgvLx09tUWj613drhJzztLF9k6Skca6zIgnUx6yd09vg_tHjo3WUcPeyT18fqv4uMv30rvAG9YTmvifGFS7tLqfZ_uuHEBn_3HvZqnder4Nk0heMsaLkrf4L3-Yr9Wh3P_yiCHCAwRjTN3A0w3gSw7qdN8GusrtXD9wVbquRfsuoB6YJbsA7SbOuFl3IDYTiEZ9CnPIvI7eCBbQOIlw5hNKY-mJvxN3YmYBC9gIYOyYjR-Z8qmGGkdoKV0c9Z1UZhOR0ZoPdBbH0wk6_lFZdETYgDfL8vwAtUAOtB2QX-pTk55D1Fs54VX2HQhuFG8JgpApLD6itr5mp6HKZYJ1Nj9JUFde3Rw_jehQVAVCy8OKgWvqB-4IIjOXkiho5ux7UqArkJMYWLvhh5dVT3F96qX_vAOIP6P69iFPBOcRToxHXb7E5UqF5ovoJnTDWqTbBJRSAxRMUQrdpMccsSiJn7qY7tssTg5BJdxX116MimBvhSAjEUIRBUyZUMSg_U3g3R08UTLJpvSkQe66nIEH148DQdG3-EfDAT14YQzFJh0cSH0igOaSAwsi9SjImMVgdGELd7OZgcQVLotr6JHbvSd6uWgmtsoaFTBrsAodkPx53CEulv_WE1oiRCEl4TMAlJjAscpefkjEWgheON_uNNA8u3e5-wYGEzB71VyNFPiUWiIWQj65PzspwLukLcu-a-pvN8K6qUuOi_PLdUWggYH57ftgih_Uwph5M5hW7cNfHpshK8fs9NNIIm_RzzvFe5htFd19kxd7j89WWGAxB0P2wVZpsbROYGPtvlOj6KLEudBdLLC1QVf57eWIDAmamibT5OU9YLjdyeyBII2oJKJOXtPhwUTNUTpBvRFxFNq_Mj8xcLDC5X2EXUQd3qRN8cMJkHED1UhhH-XusKFQFzCmf3rQLEarnfLZAb6G2fxPslWkcI9l6lTkWD4Bv6mhixLK6p9BaEI4i-2VLzQq3AWSQr-HTTo=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CRUsbPhP1SIxnKY9olx8iHjNYC-Od5Ldwl5OmahmkXuQb9kS3uTBPFVdjV3cdW-6juj99iTaCJiikjPmH-8bkVWVBIK35xtfxAs8x_hse5ws1IAgOw4IOW021mkz5_50qnAojBtkEVfEL_82LP8j37Mf248EZhLRlefSUDyXGjnLAqz8wQIM-R4rm6yS8gh4DrRC1zXmpU_f-GqRi7-CMWk_2a_mgED8nPGcpCBoZ2bJniPYv6B36ywPM-WHOeu_NqQJu2_jbKAYXvTwcWQS19EtJFjg87B1MWwaSElLsYt0VfMHISI4BK9HR50vqGWSPItjHXbphPKt3RiP5WdNXWZWlXvRBAXGFpZLaMtkymxdIPKtCHrKA_LcecakoVrNLG1ctpIE-z7yhdqTWSIKjC0NkYDduNWj0Xe4bBqpN7TfhRVqGpV9t-&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuMI0dftGQ6-O3wx_ScJKJgkH0l-GkNO27e5DIKmCGbsBBdGeGlCQNJlrfrxp7UWXc6wjmdVOnGE_k9JwbEHs9NIjW4PiukbLa6VxdIASNCUXYLBg7JtobDWDGkwOCJJWdAomkK8_aIyTpeTZS35ptdCgdApIB6Kvii9AzSnpUFzNoLnRQ8UW8px4rnD5LfTNxpBunaQlxUVXlFOthXKuHlqfmdkc10PChBwHnUN6fmBLxVhlnrUxff1vPbQ1hTjPzCk2LiWsrA4HJccZD_-u9mFXeWc2oeuwDiRMwJDveRrR-4j78N8fZsD9vDK9zeIsBbGZqGIMCiVjkoPzMWHIubLQT1UyMi0pBwQJg0Ydspj6Q==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DeaRJ22kxg2JqrXyYf-GtO-_gK1Fzeq_EbcCN_nic61FvK2w2XEXvdTXwDDLQRWDyr0ztTlpcQ5Lf_pxOYwRW0qi0TlFkSXouYGYw0jaOpENgqXNTrKwz3yB2f8jtRIsMBNh1eF1l0TKb_0AnR3w8tZJfj-4fE-d9_Po9IlDqusLWEtLlrkqLB1HiN-dXM_RXQrssVtL9ik4oaE8M5HVA2U7KHTUl4vcMEGfhCaKZxhsuPkgoWbeRwFHdOybz-6kBmHDk7x2OAUwQa0AxX1kNqf3XGa6kxfv50jsJ6VQ_MAeZv_4IfVvBI4rB0E5_o7xB-xhsv_g0ljNp1cqjAW79-OxAU2EpYbzUOC_2FATE_h0-npI2Wvgif1G8ZSyZOPA1uD140hogBjh3uVfj_2AF7CnmGn8bFkoaBLV2YTtPEsjSCDV-u3XiA7W2ZNWALltHU7IFvSHc8YCCXMWWoUZk3EqqaFfSpbWq6Dfr-k2vUV-4pdIP8sOmMZ3lVa_wzuak1X7h0KapcceDFFC3iz8qEYjzb67dp4U_ihO7cQ9f3rvNqTsNAHCNphgC5N0NewqQPwZ7CVSr9VQ==&amp;p=16&amp;fvj=1&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CRUsbPhP1SIxnKY9olx8iHjNYC-Od5Ldwl5OmahmkXuQb9kS3uTBPFVdjV3cdW-6juj99iTaCJiikjPmH-8bkVWVBIK35xtfxAs8x_hse5ws1IAgOw4IOW021mkz5_50qnAojBtkEVfEL_82LP8j37Mf248EZhLRlefSUDyXGjnL0us3-6lIhrilhh3-cQ3aWj2l0G20FK_VZxAHJtnLjoi1dFit0zaeKymxPJGoX2dlLaHWheJ8W_emCxvWDD5smXEYQ6xLYpTtjB9MawqYTJKXyN-MbTw3-6N4XsXnADMmEyTy1_rSUKEuutdestLIVRKD48lVOHGVBkUG80i4dCwanz078UV5Mikm3vFjsLJtEbK3CRywNKgbtu7-8ppkDgemHoVldLoBri6oVvTneE2KONlZCATFNwpL4JoYmph0yA1dXRjGGD&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DHUifcytzdc3Sm3s6s6x4xLqDkDS_2fLX3JOXbacyjrNW15PfuK9EgWUaJGoj89zjpNvul7KdNuOlkxtK-_shDAtYnMSOy4yjZrIAMqyDyux7g-IjKujo0eejMNT_TSOPZa9Ackz0bGQiaXClIt1wWc4GhRQSzwe7o6CKakLSMZHnbNH-4JlrtSMfoRccOAm4Udp44l_xSpwl6CXH4FSJZvO93aW3fGN36sHu9xAsvJ1KrehwtDiQmIQcG77anztyg7PvYjKbOHf9khDcAEFja6QYwLqeBB6LchGkGgTZW9ViHoQMceGWUlOGWCEZt2lIJTAssp_8gHJCeGLHbFL11ngJrB28M4jWELK85bTmc_tm5nQtrg3oHWJiejWHLArP-yyyOOIzIO8Z9BaDprMD36WlxmDUW0CZYHQTWzx4gavUNx4MFNQ_gVbTZOi7Olww=&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BdeCH3wzlYpD364Be5JbcCJKJ8S-TlvC_iwEgvLx09tUWj613drhJzztLF9k6SkcZIcsUXXl4Onte9uJlxCuHwM9SCK6LiAvj_-ODt-It6IWi2yy6sFm0a-MHB-M0JCi3yj_tiWf-QY9u4IWF_bHExfyPYRU2TidTpGxRL7acT3IiCy0zd3jrMzHQPGyurT93C5Tj6wD7Bpb_OHWQgBE6zD1qXZE2PSe8XnF1y4KFhSwuR5QrY46BKAPuJfwmoLQy_PBvJ0UIxKDveSEDNzWS3LP_pzOzGnmK33hHl2JIa6tMWOViJdRAkyEICS1NGtKmOsTbTG2mjj5XGsq19URhZfn7Ra0vXKgh-2oBQ0WVD9mBvgyGuwpydFJUVk1atO27eP7TKiintxOOcd9LYmKRHSyRLP-KdI_mACRjWnrmSaEE6eA0VydShxuYJqB1zebd2d8dRvB8c4izmP_hEOowkTDcMgw6_faPY2uIE7QfgpHULD0vIjpEB7-2nn7OVJOeexwsVJIWAuJoMJQrC6QkfWYcXf1hacyWu_vUIYsSwic6S_pavV_11mtGheJwbwD1AP-91kAiNIGXy33lJBpgu8x_5hXvB2b3bh3bcsGOAc4wuoao5bbEGWgQwz4MAfN7Y8FSXyudlDHV4CKVUUZ7Jfe4ur3ZaaU_-QFxRnJAaVttfAxViwRLrLY-ctH9CRkO46jFd74Yq-XGSUat27Q9Gjh1VF-jVn7BxS9n5rtaNA2d8Dh5fJSdFMqS8UlvEbqdVNAz67lcbGepfw1GzynlpZSHZCFnNxhZlCe9TKVPWFKsqsMQsf8qej7IzpkMAmIw-NuWm_LYM2inbRXyiZ3rs4eNena9TgpQUKRGjvM7cLOh0EwT1siySt5yeig76B4b_2rzIj0PcE-O2FvC-FNv76Lz6TPl1LyG6f33N47_V3sq8lmkwmrnsQFLZcT6DdESWY3gEsRtZyk3e52C7mAyyAgD7tsgWf11w9UKM8JArdgwrwIpp7pPa6vPxGiLsT84=&amp;p=14&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BdeCH3wzlYpD364Be5JbcCJKJ8S-TlvC_iwEgvLx09tUWj613drhJzztLF9k6Skca6zIgnUx6yd09vg_tHjo3WUcPeyT18fqv4uMv30rvAG9YTmvifGFS7tLqfZ_uuHEBn_3HvZqnder4Nk0heMsaLj5pTL5MejMUCu6afRS0PLtL_UzePD2MBVPAi1zpy4NrCV2qoSd0qFkiv2159wkCQAAW9ig1di7GmRk2cFMF3rJPG-V4GWubGeKtXvzh150Ou9PV5UTy7aXgdKF92_yzlZOeiB1iULnesUJipLPCeSRuPkJflNc_rEdrs9CtjYE1DQfptmLS9pzEtYX6mhKwH22Ro8XiS-LeYLY-XkeU4ceZzi95bOW7-D3KEMHAXCoUDsygJJXMQEC_HG6vrz4xcgoXXjO2_MWaLON0YGPkpASxP0P7sNRFIUkL8UsieYuEDlZs3BCc4PL6ws15JDwPxYX7vZ8IFcewTb02SbY0y24JapovEbiGrjP5xQf1C4Sd6p0DgDHytLTr8bz6NrJnhcWgHQrGkx6meL6DG16d0BKifcx9X83K3V4qzEQrQEUCygbr5vgp83jAEcjhjyCoLPqS5QsW7-Env2Dl9rwzLVOONAQ9yRYPGcd21wz3qPq3_gBjGfzo_4pBua6v_sn61iVbBk7ISHINIrTZZLOXMYtbI0JzIUH9wQhvMzfZQ8q_KryusO4IMZFoDesilKrcwbGBzXpwkeO6ZkSyfjlyUwHvdR1KULNYxrPLH4aO8HmwZwLesVV3985nC-3Dh1FbIWK1WYvrl-Tma-Iwoe68US0lRW66izEgMgZgXdBx8RXlJ7YzuODn0Wy3IY99xa73FX9r-4fmmxtjZAm1da5C4_JRTwcWoSQoRI5Sx6Ti7fVdmVL3hwFtEl3eZqMt5eTdoBAlFE0Zah1W0cWvnWp2Jw1a7uybWIRLcMlq4mVIPvAW2UTeiKtl9Q1ZIeJ_qeXCZ2GLR-TMN110T8RN78m5-r2Pa0NWuTh8ktDMHX-gHmYM=&amp;p=15&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DeaRJ22kxg2JqrXyYf-GtO-_gK1Fzeq_EbcCN_nic61FvK2w2XEXvdTXwDDLQRWDyr0ztTlpcQ5Lf_pxOYwRW0qi0TlFkSXouYGYw0jaOpENgqXNTrKwz3yB2f8jtRIsMBNh1eF1l0TKb_0AnR3w8tZJfj-4fE-d9_Po9IlDqusLWEtLlrkqLBnSm7bc1fRtAY1Asc-I7TwUwJUj4OobtYzdhrAtt4boh7tFsEY7Joa_yu7a0OwpAK1lQlxrzhFzx_FGgdpiMHaezgSGPlOQk8ZJZ_d98DFYEy1gJBlwaW7sLaL3TexL7NJtDxwL8xyANrwvydSoal1zKA6sKYvLixO6mxAJe8bEHjkHQgEgo53_T-bYGkUJSVL8BsHoDGuqjL8d8e8nCT5xAhFtCzkZe7Q-Ur017RlwbfW1f6_DYGTsxFrG3BoZyMS6UbaRvKTeuVKfTteLDqmzYsXniiTA5ZbnGd-hYDKmhTl3n-OeMNSrXM2CDbb7iIU6bXeosbcT0zNQHiwvSk7P-VXkSFj4cYU7VrCqDTKZQ5rhQpFjfvpbckNJjrw78Sl6KFy1QfWCBTW0suDun79w==&amp;p=16&amp;fvj=1&amp;vjs=3</t>
   </si>
   <si>
     <t>Python</t>
@@ -3284,7 +3287,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>142</v>
@@ -3328,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
         <v>143</v>
@@ -3372,7 +3375,7 @@
         <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
         <v>144</v>
@@ -3416,7 +3419,7 @@
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
         <v>145</v>
@@ -3460,7 +3463,7 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
         <v>146</v>
@@ -3504,7 +3507,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
         <v>147</v>
@@ -3548,7 +3551,7 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
         <v>148</v>
@@ -3592,7 +3595,7 @@
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
         <v>149</v>
@@ -3636,7 +3639,7 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
         <v>150</v>
@@ -3680,7 +3683,7 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
         <v>151</v>
@@ -3724,7 +3727,7 @@
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
         <v>152</v>
@@ -3768,7 +3771,7 @@
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
         <v>153</v>
@@ -3812,7 +3815,7 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
         <v>154</v>
@@ -3856,7 +3859,7 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
         <v>155</v>
@@ -3900,7 +3903,7 @@
         <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
         <v>156</v>
@@ -3932,7 +3935,7 @@
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -3944,10 +3947,10 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
@@ -3976,22 +3979,22 @@
         <v>141</v>
       </c>
       <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
         <v>158</v>
       </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s">
-        <v>159</v>
-      </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
